--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -556,7 +556,7 @@
   </si>
   <si>
     <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.
-このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダーセット、またはその他の定義。</t>
+このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
   </si>
   <si>
     <t>Event.instantiates</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16</t>
+    <t>2022-09-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -534,7 +534,7 @@
   </si>
   <si>
     <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバーからサーバーに伝播される間、一定のままである。</t>
+ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
@@ -634,7 +634,7 @@
   </si>
   <si>
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジーの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
   </si>
   <si>
     <t>example</t>
@@ -756,12 +756,12 @@
 </t>
   </si>
   <si>
-    <t>Encounter or Episode of Care administered as part of　エンカウンター、または一部として実施されるケアエピソード</t>
+    <t>Encounter or Episode of Care administered as part of　Encounter、または一部として実施されるケアエピソード</t>
   </si>
   <si>
     <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.
 投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
-受診情報や入院情報を表すエンカウンターへの参照。</t>
+受診情報や入院情報を表すEncounterへの参照。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1059,7 +1059,7 @@
   <si>
     <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
 構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
-*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザーの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
+*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1158,7 +1158,7 @@
     <t>投与方法</t>
   </si>
   <si>
-    <t>ターミノロジーは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
+    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
   </si>
   <si>
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
@@ -1386,7 +1386,7 @@
     <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
   </si>
   <si>
-    <t>ターミノロジー由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
+    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
   </si>
   <si>
     <t>CodeableConcept.text</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -1124,7 +1124,7 @@
 ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1143,7 +1143,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1232,7 +1232,7 @@
     <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.method.coding.id</t>
@@ -1368,7 +1368,7 @@
     <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.40</t>
@@ -1807,7 +1807,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="73.4765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2446" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3097" uniqueCount="521">
   <si>
     <t>Property</t>
   </si>
@@ -530,23 +530,269 @@
 </t>
   </si>
   <si>
-    <t>External identifier 外部識別子</t>
-  </si>
-  <si>
-    <t>Identifiers associated with this Medication Administration that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. They are business identifiers assigned to this resource by the performer or other systems and remain constant as the resource is updated and propagates from server to server.
-ビジネスプロセスによって定義され、リソース自体への直接URL参照が適切でない場合にそれを参照するために使用される、この投薬管理に関連付けられた識別子。これらは、実行者または他のシステムによってこのリソースに割り当てられたビジネスIDであり、リソースが更新されてサーバからサーバに伝播される間、一定のままである。</t>
+    <t>外部から参照されるID</t>
+  </si>
+  <si>
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
+  </si>
+  <si>
+    <t>これは業務IDであって、リソースに対するIDではない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>rpNumber</t>
+  </si>
+  <si>
+    <t>処方箋内部の剤グループとしてのRp番号</t>
+  </si>
+  <si>
+    <t>処方箋内で同一用法の薬剤を慣用的にまとめて、Rpに番号をつけて剤グループとして一括指定されることがある。このスライスでは剤グループに対して割り振られたRp番号を記録する。</t>
+  </si>
+  <si>
+    <t>剤グループに複数の薬剤が含まれる場合、このグループ内の薬剤には同じRp番号が割り振られる。</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.extension</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.system</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)についてのsystem値</t>
+  </si>
+  <si>
+    <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>urn:oid:1.2.392.100495.20.3.81</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.value</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)</t>
+  </si>
+  <si>
+    <t>Rp番号(剤グループ番号)。"1"など。</t>
+  </si>
+  <si>
+    <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>MedicationAdministration.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>requestIdentifier</t>
+  </si>
+  <si>
+    <t>処方オーダに対するID(MedicationRequestからの継承)</t>
+  </si>
+  <si>
+    <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
     <t>This is a business identifier, not a resource identifier.</t>
   </si>
   <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationAdministration.instantiates</t>
@@ -599,9 +845,6 @@
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>患者への投与状況</t>
   </si>
   <si>
@@ -621,10 +864,6 @@
   </si>
   <si>
     <t>MedicationAdministration.statusReason</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Reason administration not performed　実施されていない理由</t>
@@ -852,32 +1091,7 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationAdministration.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1182,9 +1396,6 @@
     <t>MedicationAdministration.dosage.method.extension</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
     <t>MedicationAdministration.dosage.method.coding</t>
   </si>
   <si>
@@ -1202,10 +1413,6 @@
   </si>
   <si>
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1774,7 +1981,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN67"/>
+  <dimension ref="A1:AN85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1806,7 +2013,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="79.59375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3433,7 +3640,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>79</v>
@@ -3495,16 +3702,14 @@
         <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB15" s="2"/>
       <c r="AC15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>162</v>
@@ -3522,13 +3727,13 @@
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3539,18 +3744,20 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="C16" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>77</v>
@@ -3559,18 +3766,20 @@
         <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3619,7 +3828,7 @@
         <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>78</v>
@@ -3634,13 +3843,13 @@
         <v>98</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3662,7 +3871,7 @@
         <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>77</v>
@@ -3671,7 +3880,7 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>176</v>
@@ -3731,22 +3940,22 @@
         <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>180</v>
@@ -3767,26 +3976,26 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>182</v>
@@ -3795,7 +4004,7 @@
         <v>183</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3821,55 +4030,55 @@
         <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="X18" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AF18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>190</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3877,7 +4086,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3888,30 +4097,32 @@
         <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3935,13 +4146,13 @@
         <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>77</v>
@@ -3959,13 +4170,13 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>77</v>
@@ -3974,16 +4185,16 @@
         <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>77</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3991,7 +4202,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4011,19 +4222,23 @@
         <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4047,13 +4262,13 @@
         <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>77</v>
@@ -4071,7 +4286,7 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4089,13 +4304,13 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4103,7 +4318,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4126,30 +4341,32 @@
         <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>77</v>
@@ -4161,34 +4378,34 @@
         <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y21" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AF21" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>86</v>
@@ -4200,16 +4417,16 @@
         <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4217,7 +4434,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4240,16 +4457,16 @@
         <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>221</v>
+        <v>176</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4263,7 +4480,7 @@
         <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>77</v>
@@ -4299,10 +4516,10 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>86</v>
@@ -4314,16 +4531,16 @@
         <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>77</v>
@@ -4331,7 +4548,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4351,20 +4568,18 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4428,16 +4643,16 @@
         <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>77</v>
@@ -4445,7 +4660,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4456,7 +4671,7 @@
         <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>77</v>
@@ -4465,19 +4680,19 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -4533,7 +4748,7 @@
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
@@ -4545,13 +4760,13 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>77</v>
@@ -4559,18 +4774,20 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>77</v>
@@ -4579,19 +4796,19 @@
         <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4641,13 +4858,13 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
@@ -4656,16 +4873,16 @@
         <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4673,7 +4890,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4684,7 +4901,7 @@
         <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>77</v>
@@ -4693,16 +4910,16 @@
         <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>253</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4753,31 +4970,31 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>255</v>
+        <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>77</v>
@@ -4785,18 +5002,18 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>77</v>
@@ -4808,15 +5025,17 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -4853,37 +5072,37 @@
         <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4897,41 +5116,43 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4955,13 +5176,13 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
@@ -4979,31 +5200,31 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>268</v>
+        <v>194</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>195</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5011,42 +5232,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>269</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>271</v>
+        <v>198</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>272</v>
+        <v>199</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>77</v>
@@ -5071,13 +5292,13 @@
         <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>204</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>77</v>
@@ -5095,31 +5316,31 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5127,7 +5348,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5135,7 +5356,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>86</v>
@@ -5147,31 +5368,35 @@
         <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>193</v>
+        <v>100</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>211</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>77</v>
@@ -5183,13 +5408,13 @@
         <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>278</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>77</v>
@@ -5207,7 +5432,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5222,16 +5447,16 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>279</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>280</v>
+        <v>215</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5239,7 +5464,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>217</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5262,15 +5487,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>282</v>
+        <v>176</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5283,7 +5510,7 @@
         <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>77</v>
@@ -5319,10 +5546,10 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>281</v>
+        <v>222</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
@@ -5334,16 +5561,16 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>285</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5351,7 +5578,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5362,7 +5589,7 @@
         <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>77</v>
@@ -5371,16 +5598,16 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>228</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5407,13 +5634,13 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
@@ -5431,13 +5658,13 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>287</v>
+        <v>229</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>77</v>
@@ -5446,16 +5673,16 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>292</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>230</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5463,7 +5690,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>232</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5474,7 +5701,7 @@
         <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>77</v>
@@ -5483,19 +5710,19 @@
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>296</v>
+        <v>233</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>236</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5545,13 +5772,13 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>295</v>
+        <v>237</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
@@ -5560,24 +5787,24 @@
         <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>301</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>302</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5588,7 +5815,7 @@
         <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>77</v>
@@ -5597,23 +5824,19 @@
         <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>305</v>
+        <v>100</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5661,13 +5884,13 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
@@ -5676,16 +5899,16 @@
         <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>310</v>
+        <v>253</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>254</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>77</v>
@@ -5693,7 +5916,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5713,20 +5936,18 @@
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>314</v>
+        <v>256</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>257</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>224</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>77</v>
@@ -5775,7 +5996,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>313</v>
+        <v>255</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>78</v>
@@ -5790,16 +6011,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>259</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -5807,7 +6028,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5815,31 +6036,31 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>262</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>263</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
+        <v>264</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5865,13 +6086,13 @@
         <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -5889,13 +6110,13 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>77</v>
@@ -5904,16 +6125,16 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>324</v>
+        <v>267</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>325</v>
+        <v>268</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>270</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>77</v>
@@ -5921,7 +6142,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5932,7 +6153,7 @@
         <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>77</v>
@@ -5944,15 +6165,17 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>252</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>77</v>
@@ -5977,13 +6200,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6001,31 +6224,31 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>329</v>
+        <v>98</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>278</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>279</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>77</v>
@@ -6033,7 +6256,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6056,13 +6279,13 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6089,13 +6312,13 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>285</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>77</v>
@@ -6113,7 +6336,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6125,13 +6348,13 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>77</v>
@@ -6145,18 +6368,18 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6165,19 +6388,19 @@
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>131</v>
+        <v>288</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>159</v>
+        <v>291</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6203,13 +6426,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6227,31 +6450,31 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>297</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>77</v>
@@ -6259,43 +6482,41 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>299</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6343,31 +6564,31 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>303</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>304</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>77</v>
+        <v>306</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>77</v>
@@ -6375,7 +6596,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6398,15 +6619,17 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>260</v>
+        <v>308</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>77</v>
@@ -6455,7 +6678,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6470,16 +6693,16 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>337</v>
+        <v>312</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>77</v>
@@ -6487,7 +6710,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6498,7 +6721,7 @@
         <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>77</v>
@@ -6510,16 +6733,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>193</v>
+        <v>316</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6545,11 +6768,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>342</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6567,13 +6792,13 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>77</v>
@@ -6585,13 +6810,13 @@
         <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>344</v>
+        <v>77</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6599,7 +6824,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6607,7 +6832,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
@@ -6619,19 +6844,19 @@
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>193</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>196</v>
+        <v>324</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6657,11 +6882,13 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>348</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>77</v>
@@ -6679,10 +6906,10 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>345</v>
+        <v>320</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6694,16 +6921,16 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>77</v>
+        <v>325</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>77</v>
+        <v>327</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>350</v>
+        <v>328</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>77</v>
@@ -6711,7 +6938,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6722,7 +6949,7 @@
         <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>77</v>
@@ -6731,23 +6958,19 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>193</v>
+        <v>330</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6771,13 +6994,13 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>197</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -6795,13 +7018,13 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>77</v>
@@ -6810,16 +7033,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>333</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>335</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -6827,7 +7050,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>359</v>
+        <v>337</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6850,13 +7073,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>260</v>
+        <v>176</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>261</v>
+        <v>177</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6907,7 +7130,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>263</v>
+        <v>179</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -6925,7 +7148,7 @@
         <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6939,7 +7162,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6965,10 +7188,10 @@
         <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>266</v>
+        <v>182</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>267</v>
+        <v>183</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>159</v>
@@ -7009,19 +7232,19 @@
         <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>268</v>
+        <v>185</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7039,7 +7262,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7053,11 +7276,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7070,25 +7293,25 @@
         <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>363</v>
+        <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>159</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>367</v>
+        <v>160</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7125,17 +7348,19 @@
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AB47" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7147,19 +7372,19 @@
         <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>370</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>77</v>
@@ -7167,11 +7392,9 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B48" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7189,23 +7412,19 @@
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>363</v>
+        <v>197</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7229,11 +7448,13 @@
         <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X48" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="Y48" t="s" s="2">
-        <v>377</v>
+        <v>348</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>77</v>
@@ -7251,13 +7472,13 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
@@ -7266,16 +7487,16 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>77</v>
@@ -7283,7 +7504,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7291,7 +7512,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>86</v>
@@ -7303,16 +7524,16 @@
         <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>260</v>
+        <v>352</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>261</v>
+        <v>353</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7363,10 +7584,10 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>263</v>
+        <v>351</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>86</v>
@@ -7375,13 +7596,13 @@
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7395,11 +7616,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>379</v>
+        <v>357</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -7418,17 +7639,15 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>266</v>
+        <v>358</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7453,31 +7672,31 @@
         <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>360</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>361</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7489,19 +7708,19 @@
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>264</v>
+        <v>363</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>364</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7509,7 +7728,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7517,10 +7736,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>77</v>
@@ -7529,29 +7748,27 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>385</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>77</v>
@@ -7593,13 +7810,13 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>77</v>
@@ -7608,24 +7825,24 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>370</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>77</v>
+        <v>373</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7645,21 +7862,23 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>260</v>
+        <v>375</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7707,7 +7926,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7722,16 +7941,16 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -7739,7 +7958,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7750,7 +7969,7 @@
         <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>77</v>
@@ -7759,21 +7978,21 @@
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>106</v>
+        <v>384</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7821,13 +8040,13 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
@@ -7839,13 +8058,13 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -7853,7 +8072,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7864,7 +8083,7 @@
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -7873,21 +8092,21 @@
         <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>260</v>
+        <v>390</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
       </c>
@@ -7935,13 +8154,13 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>77</v>
@@ -7950,16 +8169,16 @@
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>394</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>409</v>
+        <v>77</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -7967,7 +8186,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7987,23 +8206,19 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>411</v>
+        <v>330</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8051,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8063,19 +8278,19 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>399</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8083,11 +8298,9 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8105,23 +8318,19 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>363</v>
+        <v>176</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>177</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8145,11 +8354,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>422</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8167,31 +8378,31 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>369</v>
+        <v>179</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>371</v>
+        <v>77</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8199,18 +8410,18 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>378</v>
+        <v>402</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>77</v>
@@ -8222,15 +8433,17 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>261</v>
+        <v>182</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="M57" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>77</v>
@@ -8279,25 +8492,25 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>264</v>
+        <v>180</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8311,11 +8524,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>156</v>
+        <v>340</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8328,24 +8541,26 @@
         <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J58" t="s" s="2">
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>267</v>
+        <v>342</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="N58" s="2"/>
+      <c r="N58" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>77</v>
       </c>
@@ -8381,19 +8596,19 @@
         <v>77</v>
       </c>
       <c r="AA58" t="s" s="2">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>361</v>
+        <v>77</v>
       </c>
       <c r="AC58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD58" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>268</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8411,7 +8626,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>264</v>
+        <v>129</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8425,7 +8640,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>404</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8433,7 +8648,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>86</v>
@@ -8445,29 +8660,25 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>100</v>
+        <v>176</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P59" s="2"/>
       <c r="Q59" t="s" s="2">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="R59" t="s" s="2">
         <v>77</v>
@@ -8509,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8527,13 +8738,13 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8541,7 +8752,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>389</v>
+        <v>408</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8561,19 +8772,19 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>392</v>
+        <v>411</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
@@ -8599,13 +8810,11 @@
         <v>77</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>77</v>
+        <v>412</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>77</v>
@@ -8623,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8641,13 +8850,13 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>395</v>
+        <v>414</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>77</v>
@@ -8655,7 +8864,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>396</v>
+        <v>415</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8675,21 +8884,21 @@
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>397</v>
+        <v>416</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="M61" s="2"/>
-      <c r="N61" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8713,13 +8922,11 @@
         <v>77</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>77</v>
+        <v>418</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8737,7 +8944,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8755,13 +8962,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8769,7 +8976,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8789,20 +8996,22 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="N62" t="s" s="2">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -8827,13 +9036,13 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>77</v>
+        <v>425</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -8851,7 +9060,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -8869,13 +9078,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -8883,7 +9092,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8903,23 +9112,19 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>411</v>
+        <v>176</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>412</v>
+        <v>177</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>77</v>
       </c>
@@ -8967,7 +9172,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>416</v>
+        <v>179</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -8979,19 +9184,19 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>417</v>
+        <v>180</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>418</v>
+        <v>77</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -8999,18 +9204,18 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>77</v>
@@ -9019,23 +9224,21 @@
         <v>77</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>260</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>425</v>
+        <v>182</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
+        <v>183</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>428</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
       </c>
@@ -9071,43 +9274,43 @@
         <v>77</v>
       </c>
       <c r="AA64" t="s" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AC64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD64" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>429</v>
+        <v>185</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>430</v>
+        <v>180</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>431</v>
+        <v>77</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9115,7 +9318,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9126,7 +9329,7 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>77</v>
@@ -9135,21 +9338,23 @@
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J65" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K65" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="K65" t="s" s="2">
+      <c r="L65" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>77</v>
       </c>
@@ -9185,31 +9390,29 @@
         <v>77</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>437</v>
+        <v>98</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
@@ -9229,9 +9432,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9249,21 +9454,23 @@
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>77</v>
       </c>
@@ -9287,13 +9494,11 @@
         <v>77</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>77</v>
+        <v>445</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>77</v>
@@ -9311,13 +9516,13 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
@@ -9329,13 +9534,13 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>77</v>
@@ -9343,7 +9548,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9354,7 +9559,7 @@
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9366,17 +9571,15 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>448</v>
+        <v>176</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>449</v>
+        <v>177</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9425,33 +9628,2095 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AF67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG67" t="s" s="2">
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F68" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK67" t="s" s="2">
+      <c r="AJ69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M71" s="2"/>
+      <c r="N71" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="X74" s="2"/>
+      <c r="Y74" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N77" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AL67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN67" t="s" s="2">
+      <c r="O77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN85" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -1356,7 +1356,7 @@
 患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationRouteHL70162_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
   </si>
   <si>
     <t>.routeCode</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="561">
   <si>
     <t>Property</t>
   </si>
@@ -259,6 +259,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>患者への薬剤投与記録</t>
@@ -2301,13 +2305,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2373,10 +2377,10 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>79</v>
@@ -2390,10 +2394,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2404,7 +2408,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>79</v>
@@ -2413,19 +2417,19 @@
         <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2475,13 +2479,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2507,10 +2511,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2521,7 +2525,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>79</v>
@@ -2530,16 +2534,16 @@
         <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2590,19 +2594,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2622,10 +2626,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2636,28 +2640,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2707,19 +2711,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2739,10 +2743,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2753,7 +2757,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2765,16 +2769,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2800,13 +2804,13 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>79</v>
@@ -2824,19 +2828,19 @@
         <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2856,21 +2860,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2882,16 +2886,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2941,25 +2945,25 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -2973,14 +2977,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2999,16 +3003,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3058,7 +3062,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3076,7 +3080,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -3090,10 +3094,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3116,13 +3120,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3161,17 +3165,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3183,7 +3187,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3203,13 +3207,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -3219,7 +3223,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -3231,13 +3235,13 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3288,7 +3292,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3297,10 +3301,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3320,13 +3324,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3336,7 +3340,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3348,13 +3352,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3405,7 +3409,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3414,10 +3418,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3437,13 +3441,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3453,7 +3457,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3465,13 +3469,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3522,7 +3526,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3531,10 +3535,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3554,13 +3558,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3582,13 +3586,13 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3639,7 +3643,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3648,10 +3652,10 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3671,14 +3675,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3691,25 +3695,25 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3758,7 +3762,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3770,13 +3774,13 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3790,10 +3794,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3801,7 +3805,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3816,16 +3820,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3863,17 +3867,17 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3885,16 +3889,16 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3905,23 +3909,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3933,16 +3937,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3992,7 +3996,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4004,16 +4008,16 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4024,10 +4028,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4038,7 +4042,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4050,13 +4054,13 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4107,13 +4111,13 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
@@ -4125,7 +4129,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4139,14 +4143,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4165,16 +4169,16 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4212,19 +4216,19 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4236,13 +4240,13 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4256,10 +4260,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4270,31 +4274,31 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4319,13 +4323,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4343,31 +4347,31 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4375,10 +4379,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4389,7 +4393,7 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>79</v>
@@ -4398,22 +4402,22 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4438,13 +4442,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4462,31 +4466,31 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4494,10 +4498,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4505,10 +4509,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>79</v>
@@ -4517,35 +4521,35 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>79</v>
@@ -4581,31 +4585,31 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4613,10 +4617,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4624,10 +4628,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4636,19 +4640,19 @@
         <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4662,7 +4666,7 @@
         <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>79</v>
@@ -4698,31 +4702,31 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4730,10 +4734,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4744,7 +4748,7 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>79</v>
@@ -4753,16 +4757,16 @@
         <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4813,31 +4817,31 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4845,10 +4849,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4859,7 +4863,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4868,19 +4872,19 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4930,31 +4934,31 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4962,13 +4966,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -4990,16 +4994,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5049,7 +5053,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5061,16 +5065,16 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5081,10 +5085,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5095,7 +5099,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5107,13 +5111,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5164,13 +5168,13 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>79</v>
@@ -5182,7 +5186,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5196,14 +5200,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5222,16 +5226,16 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5269,19 +5273,19 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5293,13 +5297,13 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5313,10 +5317,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5327,31 +5331,31 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5376,13 +5380,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5400,31 +5404,31 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5432,10 +5436,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5446,7 +5450,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5455,22 +5459,22 @@
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5495,13 +5499,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5519,31 +5523,31 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5551,10 +5555,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5562,10 +5566,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>79</v>
@@ -5574,35 +5578,35 @@
         <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>79</v>
@@ -5638,31 +5642,31 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5670,10 +5674,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5681,10 +5685,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>79</v>
@@ -5693,19 +5697,19 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5719,7 +5723,7 @@
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>79</v>
@@ -5755,31 +5759,31 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5787,10 +5791,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5801,7 +5805,7 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5810,16 +5814,16 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5870,31 +5874,31 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5902,10 +5906,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5916,7 +5920,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
@@ -5925,19 +5929,19 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5987,31 +5991,31 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6019,10 +6023,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6042,16 +6046,16 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6102,7 +6106,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6114,13 +6118,13 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6134,10 +6138,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6157,16 +6161,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6217,7 +6221,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6229,13 +6233,13 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6249,10 +6253,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6260,31 +6264,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6310,13 +6314,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6334,31 +6338,31 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6366,10 +6370,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6392,16 +6396,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6427,13 +6431,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6451,7 +6455,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6463,19 +6467,19 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6483,10 +6487,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6497,7 +6501,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6509,13 +6513,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6542,13 +6546,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6566,25 +6570,25 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6598,10 +6602,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6609,10 +6613,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>79</v>
@@ -6621,19 +6625,19 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6659,13 +6663,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6683,31 +6687,31 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6715,10 +6719,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6726,10 +6730,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>79</v>
@@ -6738,19 +6742,19 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6800,31 +6804,31 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6832,10 +6836,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6846,7 +6850,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6858,16 +6862,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6917,31 +6921,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6949,10 +6953,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6975,16 +6979,16 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7034,7 +7038,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7046,16 +7050,16 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7066,10 +7070,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7077,10 +7081,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -7089,19 +7093,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7151,31 +7155,31 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7183,10 +7187,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7206,16 +7210,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7266,7 +7270,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7278,19 +7282,19 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7298,10 +7302,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7312,7 +7316,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7324,13 +7328,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7381,13 +7385,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -7399,7 +7403,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7413,14 +7417,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7439,16 +7443,16 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7498,7 +7502,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7510,13 +7514,13 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7530,14 +7534,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7550,25 +7554,25 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7617,7 +7621,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7629,13 +7633,13 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7649,10 +7653,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7663,7 +7667,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7675,13 +7679,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7708,13 +7712,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7732,25 +7736,25 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7764,10 +7768,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7775,10 +7779,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7787,16 +7791,16 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7847,25 +7851,25 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7879,10 +7883,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7905,13 +7909,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7938,13 +7942,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7962,7 +7966,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7974,19 +7978,19 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7994,10 +7998,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8020,16 +8024,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8079,7 +8083,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8091,30 +8095,30 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8125,7 +8129,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8137,19 +8141,19 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8198,31 +8202,31 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8230,10 +8234,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8256,16 +8260,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8315,7 +8319,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8327,19 +8331,19 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8347,10 +8351,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8373,16 +8377,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8432,7 +8436,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8444,13 +8448,13 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8464,10 +8468,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8478,7 +8482,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8490,13 +8494,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8547,25 +8551,25 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8579,10 +8583,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8593,7 +8597,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8605,13 +8609,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8662,13 +8666,13 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
@@ -8680,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8694,14 +8698,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8720,16 +8724,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8779,7 +8783,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8791,13 +8795,13 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8811,14 +8815,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8831,25 +8835,25 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8898,7 +8902,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8910,13 +8914,13 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8930,10 +8934,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8944,7 +8948,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8956,13 +8960,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9013,25 +9017,25 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9045,10 +9049,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9059,7 +9063,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9071,16 +9075,16 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9106,11 +9110,11 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9128,31 +9132,31 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9160,10 +9164,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9174,7 +9178,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9186,16 +9190,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9221,11 +9225,11 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9243,31 +9247,31 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9275,10 +9279,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9289,7 +9293,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9301,19 +9305,19 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9338,13 +9342,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9362,31 +9366,31 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9394,10 +9398,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9408,7 +9412,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9420,13 +9424,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9477,13 +9481,13 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
@@ -9495,7 +9499,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9509,14 +9513,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9535,16 +9539,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9582,19 +9586,19 @@
         <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9606,13 +9610,13 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9626,10 +9630,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9649,22 +9653,22 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9701,17 +9705,17 @@
         <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9723,19 +9727,19 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -9743,13 +9747,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>79</v>
@@ -9759,7 +9763,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>
@@ -9768,22 +9772,22 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9808,11 +9812,11 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9830,7 +9834,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9842,19 +9846,19 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -9862,10 +9866,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9876,7 +9880,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9888,13 +9892,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9945,13 +9949,13 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
@@ -9963,7 +9967,7 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9977,14 +9981,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10003,16 +10007,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10050,19 +10054,19 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10074,13 +10078,13 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10094,10 +10098,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10105,10 +10109,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -10117,29 +10121,29 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>79</v>
@@ -10181,31 +10185,31 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10213,10 +10217,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10227,7 +10231,7 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
@@ -10236,19 +10240,19 @@
         <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10298,31 +10302,31 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10330,10 +10334,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10344,7 +10348,7 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -10353,20 +10357,20 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10415,31 +10419,31 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10447,10 +10451,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10461,7 +10465,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -10470,20 +10474,20 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10532,31 +10536,31 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10564,10 +10568,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10578,7 +10582,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10587,22 +10591,22 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10651,31 +10655,31 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10683,13 +10687,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>79</v>
@@ -10699,7 +10703,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10708,22 +10712,22 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10748,11 +10752,11 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -10770,7 +10774,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10782,19 +10786,19 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -10802,10 +10806,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10816,7 +10820,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10828,13 +10832,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10885,13 +10889,13 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -10903,7 +10907,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10917,14 +10921,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10943,16 +10947,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10990,19 +10994,19 @@
         <v>79</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11014,13 +11018,13 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11034,10 +11038,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11045,10 +11049,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -11057,29 +11061,29 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>79</v>
@@ -11121,31 +11125,31 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11153,10 +11157,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11167,7 +11171,7 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -11176,19 +11180,19 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11238,31 +11242,31 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11270,10 +11274,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11284,7 +11288,7 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -11293,20 +11297,20 @@
         <v>79</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11355,31 +11359,31 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11387,10 +11391,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11401,7 +11405,7 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -11410,20 +11414,20 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11472,31 +11476,31 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11504,10 +11508,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11518,7 +11522,7 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
@@ -11527,22 +11531,22 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11591,31 +11595,31 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11623,10 +11627,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11637,7 +11641,7 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11646,22 +11650,22 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11710,31 +11714,31 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11742,10 +11746,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11756,7 +11760,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11768,16 +11772,16 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11827,31 +11831,31 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11859,10 +11863,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11873,7 +11877,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11885,16 +11889,16 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11944,31 +11948,31 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -11976,10 +11980,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12002,16 +12006,16 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12061,7 +12065,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12073,13 +12077,13 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="560">
   <si>
     <t>Property</t>
   </si>
@@ -259,10 +259,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>患者への薬剤投与記録</t>
@@ -2305,13 +2301,13 @@
         <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>84</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2377,10 +2373,10 @@
         <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>85</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>79</v>
@@ -2394,10 +2390,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2408,28 +2404,28 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2479,13 +2475,13 @@
         <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>79</v>
@@ -2511,10 +2507,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2525,25 +2521,25 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2594,19 +2590,19 @@
         <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
@@ -2626,10 +2622,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2640,28 +2636,28 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2711,19 +2707,19 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
@@ -2743,10 +2739,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2757,7 +2753,7 @@
         <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>79</v>
@@ -2769,16 +2765,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2804,43 +2800,43 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>112</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>115</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
@@ -2860,21 +2856,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -2886,16 +2882,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2945,25 +2941,25 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>79</v>
@@ -2977,14 +2973,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3003,16 +2999,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3062,7 +3058,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3080,7 +3076,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -3094,10 +3090,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3120,13 +3116,13 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3165,17 +3161,17 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AF9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AF9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3187,7 +3183,7 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3207,13 +3203,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C10" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>79</v>
@@ -3223,7 +3219,7 @@
         <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>79</v>
@@ -3235,13 +3231,13 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3292,7 +3288,7 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3301,10 +3297,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3324,13 +3320,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3340,7 +3336,7 @@
         <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>79</v>
@@ -3352,13 +3348,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3409,7 +3405,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3418,10 +3414,10 @@
         <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3441,13 +3437,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3457,7 +3453,7 @@
         <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3469,13 +3465,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3526,7 +3522,7 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3535,10 +3531,10 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3558,13 +3554,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s" s="2">
         <v>156</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="C13" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3586,13 +3582,13 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3643,7 +3639,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3652,10 +3648,10 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3675,14 +3671,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3695,25 +3691,25 @@
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3762,7 +3758,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3774,13 +3770,13 @@
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3794,10 +3790,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3805,7 +3801,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>81</v>
@@ -3820,16 +3816,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3867,17 +3863,17 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3889,16 +3885,16 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3909,23 +3905,23 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
@@ -3937,16 +3933,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3996,7 +3992,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4008,16 +4004,16 @@
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4028,10 +4024,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4042,7 +4038,7 @@
         <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -4054,13 +4050,13 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4111,25 +4107,25 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4143,14 +4139,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4169,16 +4165,16 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="N18" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4216,19 +4212,19 @@
         <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4240,13 +4236,13 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4260,10 +4256,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4274,31 +4270,31 @@
         <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4323,55 +4319,55 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
@@ -4379,10 +4375,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4393,31 +4389,31 @@
         <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4442,55 +4438,55 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF20" t="s" s="2">
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4498,10 +4494,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4509,107 +4505,107 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T21" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="S21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T21" t="s" s="2">
+      <c r="U21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="U21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF21" t="s" s="2">
+      <c r="AG21" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4617,10 +4613,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4628,31 +4624,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4666,67 +4662,67 @@
         <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="U22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF22" t="s" s="2">
+      <c r="AG22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AG22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4734,10 +4730,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4748,25 +4744,25 @@
         <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J23" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4817,31 +4813,31 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AM23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4849,10 +4845,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4863,28 +4859,28 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4934,31 +4930,31 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4966,13 +4962,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C25" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -4994,16 +4990,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5053,7 +5049,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5065,16 +5061,16 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5085,10 +5081,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5099,7 +5095,7 @@
         <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>79</v>
@@ -5111,13 +5107,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5168,25 +5164,25 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5200,14 +5196,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5226,16 +5222,16 @@
         <v>79</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5273,19 +5269,19 @@
         <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC27" t="s" s="2">
+      <c r="AF27" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5297,13 +5293,13 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5317,10 +5313,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5331,31 +5327,31 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="N28" t="s" s="2">
+      <c r="O28" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5380,55 +5376,55 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y28" t="s" s="2">
+      <c r="Z28" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z28" t="s" s="2">
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>205</v>
-      </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>79</v>
@@ -5436,10 +5432,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5450,31 +5446,31 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J29" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K29" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5499,55 +5495,55 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Z29" t="s" s="2">
+      <c r="AA29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5555,10 +5551,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5566,107 +5562,107 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J30" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>266</v>
-      </c>
       <c r="N30" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O30" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="U30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF30" t="s" s="2">
+      <c r="AG30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="AG30" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5674,10 +5670,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5685,31 +5681,31 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J31" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5723,67 +5719,67 @@
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF31" t="s" s="2">
+      <c r="AG31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5791,10 +5787,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5805,25 +5801,25 @@
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K32" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5874,31 +5870,31 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
+      <c r="AM32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5906,10 +5902,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5920,28 +5916,28 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K33" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5991,31 +5987,31 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6023,10 +6019,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6046,16 +6042,16 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6106,7 +6102,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6118,13 +6114,13 @@
         <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6138,10 +6134,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6161,16 +6157,16 @@
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6221,7 +6217,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6233,13 +6229,13 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6253,10 +6249,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6264,31 +6260,31 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="J36" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K36" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6314,55 +6310,55 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="Z36" t="s" s="2">
+      <c r="AA36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK36" t="s" s="2">
+      <c r="AL36" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6370,10 +6366,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6396,16 +6392,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6431,14 +6427,14 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="Y37" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="Y37" t="s" s="2">
+      <c r="Z37" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>301</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6455,7 +6451,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6467,19 +6463,19 @@
         <v>79</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6487,10 +6483,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6501,7 +6497,7 @@
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6513,13 +6509,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6546,49 +6542,49 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Z38" t="s" s="2">
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6602,10 +6598,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6613,31 +6609,31 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J39" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6663,55 +6659,55 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AA39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AA39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6719,10 +6715,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6730,31 +6726,31 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J40" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G40" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K40" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6804,31 +6800,31 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6836,10 +6832,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6850,7 +6846,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6862,16 +6858,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>334</v>
-      </c>
       <c r="N41" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6921,31 +6917,31 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6953,10 +6949,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6979,16 +6975,16 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="M42" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="N42" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7038,7 +7034,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7050,16 +7046,16 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7070,10 +7066,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7081,31 +7077,31 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K43" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7155,31 +7151,31 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7187,10 +7183,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7210,16 +7206,16 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7270,7 +7266,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7282,19 +7278,19 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7302,10 +7298,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7316,7 +7312,7 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -7328,13 +7324,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7385,25 +7381,25 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7417,14 +7413,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7443,16 +7439,16 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7502,7 +7498,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7514,13 +7510,13 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7534,14 +7530,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7554,25 +7550,25 @@
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="N47" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O47" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7621,7 +7617,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7633,13 +7629,13 @@
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7653,10 +7649,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7667,7 +7663,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7679,13 +7675,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>369</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>370</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7712,49 +7708,49 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="Z48" t="s" s="2">
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="AA48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AL48" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7768,10 +7764,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7779,28 +7775,28 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K49" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7851,25 +7847,25 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7883,10 +7879,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7909,13 +7905,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7942,14 +7938,14 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7966,7 +7962,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7978,19 +7974,19 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7998,10 +7994,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8024,16 +8020,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8083,7 +8079,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8095,30 +8091,30 @@
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AM51" t="s" s="2">
+      <c r="AN51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>397</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8129,7 +8125,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -8141,19 +8137,19 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8202,31 +8198,31 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8234,10 +8230,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8260,16 +8256,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8319,7 +8315,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8331,19 +8327,19 @@
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8351,10 +8347,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8377,16 +8373,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8436,7 +8432,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8448,13 +8444,13 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>418</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8468,10 +8464,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8482,7 +8478,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8494,13 +8490,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8551,25 +8547,25 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8583,10 +8579,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8597,7 +8593,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8609,13 +8605,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8666,25 +8662,25 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8698,14 +8694,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8724,16 +8720,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M57" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="N57" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8783,7 +8779,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8795,13 +8791,13 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8815,14 +8811,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8835,25 +8831,25 @@
         <v>79</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="N58" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O58" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8902,7 +8898,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8914,13 +8910,13 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8934,10 +8930,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8948,7 +8944,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8960,13 +8956,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>430</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9017,25 +9013,25 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9049,10 +9045,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9063,7 +9059,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9075,16 +9071,16 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>434</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>435</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9110,53 +9106,53 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AA60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL60" t="s" s="2">
+      <c r="AM60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9164,10 +9160,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9178,7 +9174,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -9190,16 +9186,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="M61" t="s" s="2">
-        <v>441</v>
-      </c>
       <c r="N61" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9225,53 +9221,53 @@
         <v>79</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AA61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF61" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AG61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL61" t="s" s="2">
+      <c r="AM61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9279,10 +9275,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9293,7 +9289,7 @@
         <v>80</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -9305,19 +9301,19 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N62" t="s" s="2">
+      <c r="O62" t="s" s="2">
         <v>447</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>448</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9342,55 +9338,55 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="Z62" t="s" s="2">
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="AA62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL62" t="s" s="2">
+      <c r="AM62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9398,10 +9394,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9412,7 +9408,7 @@
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9424,13 +9420,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9481,25 +9477,25 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9513,14 +9509,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9539,16 +9535,16 @@
         <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M64" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="N64" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9586,19 +9582,19 @@
         <v>79</v>
       </c>
       <c r="AB64" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC64" t="s" s="2">
+      <c r="AF64" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF64" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9610,13 +9606,13 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9630,10 +9626,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9653,22 +9649,22 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="N65" t="s" s="2">
+      <c r="O65" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9705,17 +9701,17 @@
         <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9727,19 +9723,19 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -9747,13 +9743,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>464</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>465</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>79</v>
@@ -9763,31 +9759,31 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K66" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="N66" t="s" s="2">
+      <c r="O66" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9812,11 +9808,11 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9834,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9846,19 +9842,19 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -9866,10 +9862,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9880,7 +9876,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9892,13 +9888,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9949,25 +9945,25 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9981,14 +9977,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10007,16 +10003,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="N68" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10054,19 +10050,19 @@
         <v>79</v>
       </c>
       <c r="AB68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC68" t="s" s="2">
+      <c r="AF68" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10078,13 +10074,13 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10098,10 +10094,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10109,107 +10105,107 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K69" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="N69" t="s" s="2">
+      <c r="O69" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF69" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="S69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF69" t="s" s="2">
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AG69" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL69" t="s" s="2">
+      <c r="AM69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10217,10 +10213,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10231,28 +10227,28 @@
         <v>80</v>
       </c>
       <c r="G70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K70" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10302,31 +10298,31 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AG70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN70" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10334,10 +10330,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10348,29 +10344,29 @@
         <v>80</v>
       </c>
       <c r="G71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J71" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K71" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10419,31 +10415,31 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AG71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN71" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10451,10 +10447,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B72" t="s" s="2">
         <v>501</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10465,29 +10461,29 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K72" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10536,31 +10532,31 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AG72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL72" t="s" s="2">
+      <c r="AM72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN72" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10568,10 +10564,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B73" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10582,31 +10578,31 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K73" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L73" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10655,31 +10651,31 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AG73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL73" t="s" s="2">
+      <c r="AM73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN73" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10687,13 +10683,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C74" t="s" s="2">
         <v>519</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C74" t="s" s="2">
-        <v>520</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>79</v>
@@ -10703,31 +10699,31 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K74" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L74" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="M74" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="N74" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O74" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10752,11 +10748,11 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -10774,7 +10770,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10786,19 +10782,19 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -10806,10 +10802,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10820,7 +10816,7 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10832,13 +10828,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10889,25 +10885,25 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10921,14 +10917,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10947,16 +10943,16 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M76" t="s" s="2">
-        <v>192</v>
-      </c>
       <c r="N76" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10994,19 +10990,19 @@
         <v>79</v>
       </c>
       <c r="AB76" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="AC76" t="s" s="2">
+      <c r="AF76" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11018,13 +11014,13 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11038,10 +11034,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11049,41 +11045,41 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="G77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K77" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="M77" t="s" s="2">
+      <c r="N77" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="N77" t="s" s="2">
+      <c r="O77" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>79</v>
@@ -11125,31 +11121,31 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL77" t="s" s="2">
+      <c r="AM77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN77" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11157,10 +11153,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11171,28 +11167,28 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K78" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11242,31 +11238,31 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AG78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL78" t="s" s="2">
+      <c r="AM78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN78" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11274,10 +11270,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11288,29 +11284,29 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J79" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K79" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L79" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="M79" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11359,31 +11355,31 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL79" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="AG79" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL79" t="s" s="2">
+      <c r="AM79" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11391,10 +11387,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11405,29 +11401,29 @@
         <v>80</v>
       </c>
       <c r="G80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J80" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K80" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11476,31 +11472,31 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL80" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL80" t="s" s="2">
+      <c r="AM80" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11508,10 +11504,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11522,31 +11518,31 @@
         <v>80</v>
       </c>
       <c r="G81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J81" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="N81" t="s" s="2">
+      <c r="O81" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11595,31 +11591,31 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL81" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="AG81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL81" t="s" s="2">
+      <c r="AM81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN81" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11627,10 +11623,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11641,31 +11637,31 @@
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J82" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="H82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>89</v>
-      </c>
       <c r="K82" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11714,31 +11710,31 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL82" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="AG82" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL82" t="s" s="2">
+      <c r="AM82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN82" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11746,10 +11742,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11760,7 +11756,7 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11772,16 +11768,16 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M83" t="s" s="2">
+      <c r="N83" t="s" s="2">
         <v>543</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>544</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11831,31 +11827,31 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AJ83" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL83" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="AK83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL83" t="s" s="2">
+      <c r="AM83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN83" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11863,10 +11859,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11877,7 +11873,7 @@
         <v>80</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11889,16 +11885,16 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>552</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11948,31 +11944,31 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>553</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>554</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -11980,10 +11976,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12006,16 +12002,16 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>557</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12065,7 +12061,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12077,13 +12073,13 @@
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3182" uniqueCount="568">
   <si>
     <t>Property</t>
   </si>
@@ -268,7 +268,7 @@
     <t>患者への薬剤投与記録</t>
   </si>
   <si>
-    <t>Describes the event of a patient consuming or otherwise being administered a medication.  This may be as simple as swallowing a tablet or it may be a long running infusion.  Related resources tie this event to the authorizing prescription, and the specific encounter between patient and health care practitioner.</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
   </si>
   <si>
     <t>Event</t>
@@ -290,13 +290,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID</t>
+  </si>
+  <si>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -309,16 +309,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>「リソースに関するメタデータ」</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -329,13 +329,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールセット</t>
+  </si>
+  <si>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -348,19 +348,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
+  </si>
+  <si>
+    <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -380,13 +380,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+  </si>
+  <si>
+    <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -406,13 +406,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -444,8 +444,8 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:requestDepartment</t>
@@ -468,6 +468,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>MedicationAdministration.extension:requestAuthoredOn</t>
   </si>
   <si>
@@ -525,14 +529,13 @@
 user content</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -597,10 +600,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -615,10 +618,13 @@
     <t>MedicationAdministration.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -633,28 +639,32 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>この識別子の目的。 / The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>アプリケーションは、識別子が一時的なものであると明示的に言っていない限り、永続的であると想定できます。 / Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>特定の使用のコンテキストが一連の識別子の中から選択される適切な識別子を許可します。 / Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
+    <t>既知の場合、この識別子の目的を識別します。 / Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
   </si>
   <si>
     <t>Role.code or implied by context</t>
@@ -670,22 +680,22 @@
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+    <t>識別子の説明 / Description of identifier</t>
+  </si>
+  <si>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>この要素は、識別子の一般的なカテゴリのみを扱います。識別子。システムに対応するコードに使用しないでください。一部の識別子は、一般的な使用法により複数のカテゴリに分類される場合があります。システムがわかっている場合、タイプは常にシステム定義の一部であるため、タイプは不要です。ただし、システムが不明な識別子を処理する必要があることがよくあります。多くの異なるシステムが同じタイプを持っているため、タイプとシステムの間に1：1の関係はありません。 / This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>識別子システムが不明な場合、ユーザーは識別子を使用できます。 / Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
     <t>extensible</t>
   </si>
   <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+    <t>特定の目的に使用する識別子を決定するために使用できる識別子のコード化されたタイプ。 / A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
@@ -709,10 +719,10 @@
     <t>ここで付番されたIDがRp番号であることを明示するためにOIDとして定義された。urn:oid:1.2.392.100495.20.3.81で固定される。</t>
   </si>
   <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+    <t>識別子。システムは常にケースに敏感です。 / Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>識別子のセットがたくさんあります。2つの識別子を一致させるには、どのセットを扱っているかを知る必要があります。システムは、特定の一意の識別子セットを識別します。 / There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.100495.20.3.81</t>
@@ -767,10 +777,10 @@
 </t>
   </si>
   <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
+    <t>IDが使用に有効だった時間期間 / Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>識別子が使用される/有効な期間。 / Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
     <t>Identifier.period</t>
@@ -792,13 +802,13 @@
 </t>
   </si>
   <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+    <t>IDを発行した組織（単なるテキストである可能性があります） / Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>識別子を発行/管理する組織。 / Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>識別子は、.reference要素を省略し、割り当て組織に関する名前またはその他のテキスト情報を反映した.display要素のみを含む場合があります。 / The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
   </si>
   <si>
     <t>Identifier.assigner</t>
@@ -822,7 +832,7 @@
     <t>薬剤をオーダする単位としての処方箋に対するID。原則として投薬実施の基となったMedicationRequestのIDを設定する。</t>
   </si>
   <si>
-    <t>This is a business identifier, not a resource identifier.</t>
+    <t>これはビジネス識別子であり、リソース識別子ではありません。</t>
   </si>
   <si>
     <t>MedicationAdministration.identifier:requestIdentifier.id</t>
@@ -840,10 +850,10 @@
     <t>MedicationAdministration.identifier:requestIdentifier.system</t>
   </si>
   <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+    <t>識別子値の名前空間 / The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>値の名前空間、つまり一意のセット値を記述するURLを確立します。 / Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
   </si>
   <si>
     <t>http://jpfhir.jp/fhir/core/IdSystem/resourceInstance-identifier</t>
@@ -852,13 +862,13 @@
     <t>MedicationAdministration.identifier:requestIdentifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+    <t>一意の値 / The value that is unique</t>
+  </si>
+  <si>
+    <t>通常、識別子の部分はユーザーに関連し、システムのコンテキスト内で一意のユーザーに関連しています。 / The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>値が完全なURIの場合、システムはurn：ietf：rfc：3986でなければなりません。値の主な目的は、計算マッピングです。その結果、比較目的で正規化される可能性があります（例えば、有意でない白文字、ダッシュなどの削除）ヒューマンディスプレイ用の値は、[レンダリングされた値拡張]（拡張レンダリングValue.html）を使用して伝達できます。識別子。価値は、識別子の知識を使用しない限り、ケースに敏感なものとして扱われます。システムにより、プロセッサーは、非セイズに固有の処理が安全であると確信できます。 / If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>MedicationAdministration.identifier:requestIdentifier.period</t>
@@ -914,7 +924,7 @@
 【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>この要素は修飾子としてラベル付けされています。なぜなら、ステータスには、リソースが現在無効であることを示すコードが含まれているためです。</t>
   </si>
   <si>
     <t>患者への投与状況</t>
@@ -951,7 +961,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration is negated.</t>
+    <t>"医薬品投与が取り消された理由を示すコードのセット"</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-not-given-codes</t>
@@ -978,7 +988,7 @@
  (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
   </si>
   <si>
-    <t>A coded concept describing where the medication administered is expected to occur.</t>
+    <t>薬剤の投与が予想される場所を記述するコード化された概念。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-admin-category</t>
@@ -1012,7 +1022,7 @@
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>
-    <t>Codes identifying substance or product that can be administered.</t>
+    <t>投与可能な物質または製品を識別するコード。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1163,7 +1173,19 @@
     <t>MedicationAdministration.performer.id</t>
   </si>
   <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
     <t>MedicationAdministration.performer.extension</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1173,11 +1195,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1186,13 +1208,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>Type of performance</t>
-  </si>
-  <si>
-    <t>Distinguishes the type of involvement of the performer in the medication administration.</t>
-  </si>
-  <si>
-    <t>A code describing the role an individual played in administering the medication.</t>
+    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
+  </si>
+  <si>
+    <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
+  </si>
+  <si>
+    <t>「薬物管理を行った個人の役割を説明するコード」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1211,10 +1233,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration.</t>
+    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+  </si>
+  <si>
+    <t>「薬剤投与を行った人物または物品を示す」</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1233,7 +1255,7 @@
 投薬が実施された理由を示すコード</t>
   </si>
   <si>
-    <t>A set of codes indicating the reason why the MedicationAdministration was made.</t>
+    <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1364,8 +1386,8 @@
 投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-mad-1:SHALL have at least one of dosage.dose or dosage.rate[x] {dose.exists() or rate.exists()}</t>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+mad-1:「用量、投与回数、投与速度[x] のうち少なくとも1つを有するものとする」と訳すことができます。 {dose.exists() or rate.exists()}</t>
   </si>
   <si>
     <t>component-&gt;SubstanceAdministrationEvent</t>
@@ -1450,7 +1472,7 @@
     <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
+    <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1475,16 +1497,16 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -1535,16 +1557,16 @@
     <t>MedicationAdministration.dosage.method.coding.system</t>
   </si>
   <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
     <t>urn:oid:1.2.392.200250.2.2.20.30</t>
@@ -1565,13 +1587,13 @@
     <t>MedicationAdministration.dosage.method.coding.version</t>
   </si>
   <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
   </si>
   <si>
     <t>Coding.version</t>
@@ -1589,13 +1611,13 @@
     <t>MedicationAdministration.dosage.method.coding.code</t>
   </si>
   <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
+    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -1613,13 +1635,13 @@
     <t>MedicationAdministration.dosage.method.coding.display</t>
   </si>
   <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+    <t>システムによって定義された表現 / Representation defined by the system</t>
+  </si>
+  <si>
+    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -1641,16 +1663,16 @@
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
   </si>
   <si>
     <t>Coding.userSelected</t>
@@ -1742,8 +1764,8 @@
     <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
@@ -1791,7 +1813,7 @@
 投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
   </si>
   <si>
-    <t>This might not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.</t>
+    <t>この要請のすべてのバージョンの起源が含まれているわけではない可能性があります。ただし、「関連性」または重要と見なされるものに限定されます。それに含まれる証跡には、このリソースの現在のバージョンに関連するものは含まれません。 （そのプロバイナンスが「関連性のある」変更である場合、後の更新の一部として追加する必要があります。その時までは、このバージョンを指すプロバイナンスとして直接クエリできます。All Provenancesは、この要求の過去のバージョンを主題として持つ必要があります。</t>
   </si>
   <si>
     <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
@@ -2134,7 +2156,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="69.23046875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
@@ -3304,7 +3326,7 @@
         <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3324,13 +3346,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>79</v>
@@ -3352,13 +3374,13 @@
         <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3421,7 +3443,7 @@
         <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>79</v>
@@ -3441,13 +3463,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>79</v>
@@ -3469,13 +3491,13 @@
         <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3538,7 +3560,7 @@
         <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>79</v>
@@ -3558,13 +3580,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3586,13 +3608,13 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3655,7 +3677,7 @@
         <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
@@ -3675,14 +3697,14 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3704,16 +3726,16 @@
         <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3762,7 +3784,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3794,10 +3816,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3820,16 +3842,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3867,7 +3889,7 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
@@ -3877,7 +3899,7 @@
         <v>137</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3892,13 +3914,13 @@
         <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -3909,13 +3931,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>79</v>
@@ -3937,16 +3959,16 @@
         <v>79</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3996,7 +4018,7 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4011,13 +4033,13 @@
         <v>100</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
@@ -4028,10 +4050,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4054,13 +4076,13 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4111,7 +4133,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4129,7 +4151,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -4143,14 +4165,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4172,13 +4194,13 @@
         <v>133</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4219,7 +4241,7 @@
         <v>136</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>79</v>
@@ -4228,7 +4250,7 @@
         <v>137</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4240,13 +4262,13 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4260,10 +4282,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4289,16 +4311,16 @@
         <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4323,13 +4345,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4347,7 +4369,7 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4359,13 +4381,13 @@
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>79</v>
@@ -4379,10 +4401,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4405,19 +4427,19 @@
         <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4442,13 +4464,13 @@
         <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>79</v>
@@ -4466,7 +4488,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4478,19 +4500,19 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>79</v>
@@ -4498,10 +4520,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4527,29 +4549,29 @@
         <v>102</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>79</v>
@@ -4585,7 +4607,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4597,19 +4619,19 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>79</v>
@@ -4617,10 +4639,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4643,16 +4665,16 @@
         <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4666,7 +4688,7 @@
         <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="U22" t="s" s="2">
         <v>79</v>
@@ -4702,7 +4724,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4714,19 +4736,19 @@
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>79</v>
@@ -4734,10 +4756,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4760,13 +4782,13 @@
         <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4817,7 +4839,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4829,19 +4851,19 @@
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>79</v>
@@ -4849,10 +4871,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4875,16 +4897,16 @@
         <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4934,7 +4956,7 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4946,19 +4968,19 @@
         <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>79</v>
@@ -4966,13 +4988,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>79</v>
@@ -4994,16 +5016,16 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5053,7 +5075,7 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5068,13 +5090,13 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
@@ -5085,10 +5107,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5111,13 +5133,13 @@
         <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5168,7 +5190,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5186,7 +5208,7 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>79</v>
@@ -5200,14 +5222,14 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5229,13 +5251,13 @@
         <v>133</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5276,7 +5298,7 @@
         <v>136</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>79</v>
@@ -5285,7 +5307,7 @@
         <v>137</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5297,13 +5319,13 @@
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
@@ -5317,10 +5339,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5346,16 +5368,16 @@
         <v>108</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>79</v>
@@ -5380,13 +5402,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5404,7 +5426,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5416,13 +5438,13 @@
         <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>79</v>
@@ -5436,10 +5458,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5462,19 +5484,19 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5499,13 +5521,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5523,7 +5545,7 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5535,19 +5557,19 @@
         <v>79</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
@@ -5555,10 +5577,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5584,29 +5606,29 @@
         <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>79</v>
@@ -5642,7 +5664,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5654,19 +5676,19 @@
         <v>79</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>79</v>
@@ -5674,10 +5696,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5700,16 +5722,16 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5723,7 +5745,7 @@
         <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>79</v>
@@ -5759,7 +5781,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5771,19 +5793,19 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>79</v>
@@ -5791,10 +5813,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5817,13 +5839,13 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5874,7 +5896,7 @@
         <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5886,19 +5908,19 @@
         <v>79</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>79</v>
@@ -5906,10 +5928,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5932,16 +5954,16 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5991,7 +6013,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6003,19 +6025,19 @@
         <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>79</v>
@@ -6023,10 +6045,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6052,10 +6074,10 @@
         <v>102</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6106,7 +6128,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6121,10 +6143,10 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>79</v>
@@ -6138,10 +6160,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6164,13 +6186,13 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6221,7 +6243,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6236,10 +6258,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -6253,10 +6275,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6282,13 +6304,13 @@
         <v>108</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6314,13 +6336,13 @@
         <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>79</v>
@@ -6338,7 +6360,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>88</v>
@@ -6353,16 +6375,16 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>79</v>
@@ -6370,10 +6392,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6396,16 +6418,16 @@
         <v>79</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6431,13 +6453,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6455,7 +6477,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6470,16 +6492,16 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>79</v>
@@ -6487,10 +6509,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6513,13 +6535,13 @@
         <v>79</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6549,28 +6571,28 @@
         <v>112</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>305</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6588,7 +6610,7 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6602,10 +6624,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6628,16 +6650,16 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6663,13 +6685,13 @@
         <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>79</v>
@@ -6687,7 +6709,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -6702,16 +6724,16 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>79</v>
@@ -6719,10 +6741,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6745,16 +6767,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6804,7 +6826,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>88</v>
@@ -6819,16 +6841,16 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>79</v>
@@ -6836,10 +6858,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6862,16 +6884,16 @@
         <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6921,7 +6943,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6936,16 +6958,16 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
@@ -6953,10 +6975,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6979,16 +7001,16 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7038,7 +7060,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7056,10 +7078,10 @@
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>79</v>
@@ -7070,10 +7092,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7096,16 +7118,16 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7155,7 +7177,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -7170,16 +7192,16 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>79</v>
@@ -7187,10 +7209,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7213,13 +7235,13 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7270,7 +7292,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7285,16 +7307,16 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>79</v>
@@ -7302,10 +7324,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7328,13 +7350,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7385,7 +7407,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7403,7 +7425,7 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
@@ -7417,14 +7439,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7446,13 +7468,13 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>192</v>
+        <v>369</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7502,7 +7524,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7520,7 +7542,7 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7534,14 +7556,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7563,16 +7585,16 @@
         <v>133</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7621,7 +7643,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7653,10 +7675,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7679,13 +7701,13 @@
         <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7712,13 +7734,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -7736,7 +7758,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7751,10 +7773,10 @@
         <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7768,10 +7790,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7794,13 +7816,13 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7851,7 +7873,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7866,10 +7888,10 @@
         <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>79</v>
@@ -7883,10 +7905,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7909,13 +7931,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7942,13 +7964,13 @@
         <v>79</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>79</v>
@@ -7966,7 +7988,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7981,16 +8003,16 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>79</v>
@@ -7998,10 +8020,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8024,16 +8046,16 @@
         <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8083,7 +8105,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8098,27 +8120,27 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8141,19 +8163,19 @@
         <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8202,7 +8224,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8217,16 +8239,16 @@
         <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8234,10 +8256,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8260,16 +8282,16 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8319,7 +8341,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8337,13 +8359,13 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
@@ -8351,10 +8373,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8377,16 +8399,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8436,7 +8458,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8451,10 +8473,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
@@ -8468,10 +8490,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8494,13 +8516,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8551,7 +8573,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8563,13 +8585,13 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8583,10 +8605,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8609,13 +8631,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>186</v>
+        <v>366</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8666,7 +8688,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8684,7 +8706,7 @@
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8698,14 +8720,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8727,13 +8749,13 @@
         <v>133</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>191</v>
+        <v>368</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>192</v>
+        <v>369</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8783,7 +8805,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8801,7 +8823,7 @@
         <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>79</v>
@@ -8815,14 +8837,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8844,16 +8866,16 @@
         <v>133</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8902,7 +8924,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8934,10 +8956,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8960,13 +8982,13 @@
         <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9017,7 +9039,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9035,7 +9057,7 @@
         <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>79</v>
@@ -9049,10 +9071,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9075,16 +9097,16 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9114,7 +9136,7 @@
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9132,7 +9154,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9150,13 +9172,13 @@
         <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>79</v>
@@ -9164,10 +9186,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9190,16 +9212,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9229,7 +9251,7 @@
       </c>
       <c r="Y61" s="2"/>
       <c r="Z61" t="s" s="2">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>79</v>
@@ -9247,7 +9269,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9265,13 +9287,13 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9279,10 +9301,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9305,19 +9327,19 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9342,13 +9364,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -9366,7 +9388,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9384,13 +9406,13 @@
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>79</v>
@@ -9398,10 +9420,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9424,13 +9446,13 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9481,7 +9503,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9499,7 +9521,7 @@
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9513,14 +9535,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9542,13 +9564,13 @@
         <v>133</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9589,7 +9611,7 @@
         <v>136</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>79</v>
@@ -9598,7 +9620,7 @@
         <v>137</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9610,13 +9632,13 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9630,10 +9652,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9656,19 +9678,19 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9705,7 +9727,7 @@
         <v>79</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AC65" s="2"/>
       <c r="AD65" t="s" s="2">
@@ -9715,7 +9737,7 @@
         <v>137</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9727,19 +9749,19 @@
         <v>79</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>79</v>
@@ -9747,13 +9769,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>79</v>
@@ -9775,19 +9797,19 @@
         <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -9816,7 +9838,7 @@
       </c>
       <c r="Y66" s="2"/>
       <c r="Z66" t="s" s="2">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9834,7 +9856,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9846,19 +9868,19 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -9866,10 +9888,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9892,13 +9914,13 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9949,7 +9971,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9967,7 +9989,7 @@
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9981,14 +10003,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -10010,13 +10032,13 @@
         <v>133</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10057,7 +10079,7 @@
         <v>136</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>79</v>
@@ -10066,7 +10088,7 @@
         <v>137</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10078,13 +10100,13 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -10098,10 +10120,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10127,23 +10149,23 @@
         <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>79</v>
@@ -10185,7 +10207,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10197,19 +10219,19 @@
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>79</v>
@@ -10217,10 +10239,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10243,16 +10265,16 @@
         <v>89</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10302,7 +10324,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10314,19 +10336,19 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>79</v>
@@ -10334,10 +10356,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10363,14 +10385,14 @@
         <v>108</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10419,7 +10441,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10431,19 +10453,19 @@
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>79</v>
@@ -10451,10 +10473,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10477,17 +10499,17 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -10536,7 +10558,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10548,19 +10570,19 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>79</v>
@@ -10568,10 +10590,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10594,19 +10616,19 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10655,7 +10677,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10667,19 +10689,19 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>79</v>
@@ -10687,13 +10709,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>79</v>
@@ -10715,19 +10737,19 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10756,7 +10778,7 @@
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -10774,7 +10796,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10786,19 +10808,19 @@
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
@@ -10806,10 +10828,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10832,13 +10854,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10889,7 +10911,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10907,7 +10929,7 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
@@ -10921,14 +10943,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10950,13 +10972,13 @@
         <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10997,7 +11019,7 @@
         <v>136</v>
       </c>
       <c r="AC76" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AD76" t="s" s="2">
         <v>79</v>
@@ -11006,7 +11028,7 @@
         <v>137</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11018,13 +11040,13 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -11038,10 +11060,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11067,23 +11089,23 @@
         <v>102</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>79</v>
@@ -11125,7 +11147,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11137,19 +11159,19 @@
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11157,10 +11179,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11183,16 +11205,16 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11242,7 +11264,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11254,19 +11276,19 @@
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11274,10 +11296,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11303,14 +11325,14 @@
         <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -11359,7 +11381,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11371,19 +11393,19 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>79</v>
@@ -11391,10 +11413,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11417,17 +11439,17 @@
         <v>89</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11476,7 +11498,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11488,19 +11510,19 @@
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>79</v>
@@ -11508,10 +11530,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11534,19 +11556,19 @@
         <v>89</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11595,7 +11617,7 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11607,19 +11629,19 @@
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>79</v>
@@ -11627,10 +11649,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11653,19 +11675,19 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11714,7 +11736,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11726,19 +11748,19 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>100</v>
+        <v>207</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>79</v>
@@ -11746,10 +11768,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11772,16 +11794,16 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
@@ -11831,7 +11853,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11843,19 +11865,19 @@
         <v>145</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>79</v>
@@ -11863,10 +11885,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11889,16 +11911,16 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11948,7 +11970,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11966,13 +11988,13 @@
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>79</v>
@@ -11980,10 +12002,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12006,16 +12028,16 @@
         <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12065,7 +12087,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12083,7 +12105,7 @@
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="435">
   <si>
     <t>Property</t>
   </si>
@@ -605,9 +605,6 @@
     <t>urn:oid:1.2.392.100495.20.3.81</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -630,9 +627,6 @@
   </si>
   <si>
     <t>value は string型であり、数値はゼロサプレス、つまり、'01'でなく'1'と指定すること。</t>
-  </si>
-  <si>
-    <t>123456</t>
   </si>
   <si>
     <t>Identifier.value</t>
@@ -920,19 +914,14 @@
     <t>MedicationAdministration.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient)
+    <t xml:space="preserve">Reference(Patient|Group)
 </t>
   </si>
   <si>
-    <t>Who received medication　投与対象患者</t>
-  </si>
-  <si>
-    <t>The person or animal or group receiving the medication.
-投与を受ける患者</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
-参照は、実際のFHIRリソースへの参照である必要があり、解決可能（内容に到達可能）である必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
+    <t>「誰が薬を受け取りましたか？」(dare ga kusuri o uketorimashita ka?)</t>
+  </si>
+  <si>
+    <t>薬を受け取る人、動物、またはグループ。 (Kusuri wo uketoru hito, doubutsu, matawa guruupu.)</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -950,16 +939,14 @@
     <t>MedicationAdministration.context</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
-    <t>Encounter or Episode of Care administered as part of　Encounter、または一部として実施されるケアエピソード</t>
-  </si>
-  <si>
-    <t>The visit, admission, or other contact between patient and health care provider during which the medication administration was performed.
-投薬が行われた患者と医療提供者の間の訪問、入院、またはその他の接触。
-受診情報や入院情報を表すEncounterへの参照。</t>
+    <t>「エピソード・オブ・ケア」は、「エンカウンター」として提供されます。</t>
+  </si>
+  <si>
+    <t>「薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。」</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -981,11 +968,10 @@
 </t>
   </si>
   <si>
-    <t>Additional information to support administration　投与をサポートする追加情報</t>
-  </si>
-  <si>
-    <t>Additional information (for example, patient height and weight) that supports the administration of the medication.
-薬の投与をサポートする追加情報（たとえば、患者の身長や体重）。</t>
+    <t>「管理をサポートするための追加情報」</t>
+  </si>
+  <si>
+    <t>薬の投与を補助する追加情報（例えば、患者の身長や体重）。</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
@@ -998,15 +984,10 @@
 Period</t>
   </si>
   <si>
-    <t>Start and end time of administration　開始時間と終了時間</t>
-  </si>
-  <si>
-    <t>A specific date/time or interval of time during which the administration took place (or did not take place, when the 'notGiven' attribute is true). For many administrations, such as swallowing a tablet the use of dateTime is more appropriate.
-投与が行われた（または「notGiven」属性がtrueの場合は行われなかった）特定の日時または時間間隔。錠剤を飲み込むなど、多くの管理では、dateTimeの使用がより適切である。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-投与実施日時であり、JP Coreでは必須である。</t>
+    <t>「管理の開始時刻と終了時刻」(Kanri no kaishi jikoku to shūryō jikoku)</t>
+  </si>
+  <si>
+    <t>「与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。」</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1028,11 +1009,10 @@
 </t>
   </si>
   <si>
-    <t>Who performed the medication administration and what they did　投薬を実施した人</t>
-  </si>
-  <si>
-    <t>Indicates who or what performed the medication administration and how they were involved.
-投薬およびそれに関与した人</t>
+    <t>「薬剤投与を行ったのは誰で、何をしたのか？」</t>
+  </si>
+  <si>
+    <t>「薬の投与を行った人や物、および彼らがどのように関与したかを示す。」</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1106,7 +1086,7 @@
     <t>MedicationAdministration.performer.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner|http://jpfhir.jp/fhir/core/StructureDefinition/JP_PractitionerRole|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|RelatedPerson|Device)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Patient|RelatedPerson|Device)
 </t>
   </si>
   <si>
@@ -1125,11 +1105,10 @@
     <t>MedicationAdministration.reasonCode</t>
   </si>
   <si>
-    <t>Reason administration performed　投薬が実施された理由</t>
-  </si>
-  <si>
-    <t>A code indicating why the medication was given.
-投薬が実施された理由を示すコード</t>
+    <t>理由に基づく行政処理 (Riyuu ni motozuku gyousei shori)</t>
+  </si>
+  <si>
+    <t>与えられた薬を説明するコード。</t>
   </si>
   <si>
     <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
@@ -1150,19 +1129,17 @@
     <t>MedicationAdministration.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Condition|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Observation_Common|http://jpfhir.jp/fhir/core/StructureDefinition/JP_DiagnosticReport_Common)
+    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport)
 </t>
   </si>
   <si>
-    <t>Condition or observation that supports why the medication was administered　薬が投与された理由を裏付ける状態または観察</t>
-  </si>
-  <si>
-    <t>Condition or observation that supports why the medication was administered.
-薬が投与された理由を裏付ける状態または観察</t>
-  </si>
-  <si>
-    <t>This is a reference to a condition that is the reason for the medication request.  If only a code exists, use reasonCode.
-これは、投薬要求の理由である状態への参照。コードのみが存在する場合は、reasonCodeを使用する。</t>
+    <t>「薬が投与された理由を支持する状態または観察」</t>
+  </si>
+  <si>
+    <t>薬剤が投与された理由を支持する状態または観察。</t>
+  </si>
+  <si>
+    <t>「これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。」</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1184,19 +1161,13 @@
 </t>
   </si>
   <si>
-    <t>Request administration performed against　実施された元の投与依頼情報</t>
-  </si>
-  <si>
-    <t>The original request, instruction or authority to perform the administration.
-投与を実行する元になった投与指示や権限への参照情報。</t>
-  </si>
-  <si>
-    <t>This is a reference to the MedicationRequest  where the intent is either order or instance-order.  It should not reference MedicationRequests where the intent is any other value.
-これは、orderまたはinstance-orderのいずれかであるMedicationRequestへの参照。インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
-  </si>
-  <si>
-    <t>これは、インテント（意図）がorderまたはinstance-orderのいずれかであるMedicationRequestへの参照である。
-インテントが他の値である場合は、MedicationRequestsを参照しないこと。</t>
+    <t>"リクエスト管理対象として実行してください。" (Rikuesuto kanri taishou toshite jikkou shite kudasai.)</t>
+  </si>
+  <si>
+    <t>「管理を実行するための元の要求、指示、または権限。」</t>
+  </si>
+  <si>
+    <t>「これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。」</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1215,11 +1186,10 @@
 </t>
   </si>
   <si>
-    <t>Device used to administer　投与に使用されるデバイス</t>
-  </si>
-  <si>
-    <t>The device used in administering the medication to the patient.  For example, a particular infusion pump.
-患者に薬を投与する際に使用されるデバイスへの参照。たとえば、特定の輸液ポンプ。</t>
+    <t>「投与するための装置」(touyo suru tame no souchi)</t>
+  </si>
+  <si>
+    <t>患者に薬剤を投与するのに使われる装置。例えば、特定の注入ポンプ。</t>
   </si>
   <si>
     <t>device-&gt;Access  OR device-&gt;AssignedDevice</t>
@@ -1235,16 +1205,10 @@
 </t>
   </si>
   <si>
-    <t>Information about the administration　投与に関する備考情報</t>
-  </si>
-  <si>
-    <t>Extra information about the medication administration that is not conveyed by the other attributes.
-他の属性では伝えられない投薬管理に関する追加情報。</t>
-  </si>
-  <si>
-    <t>For systems that do not have structured annotations, they can simply communicate a single annotation with no author or time.  This element may need to be included in narrative because of the potential for modifying information.  *Annotations SHOULD NOT* be used to communicate "modifying" information that could be computable. (This is a SHOULD because enforcing user behavior is nearly impossible).
-構造化された注釈情報がないシステムの場合、この要素によって作成者や作成時刻情報なしで単一の注釈を簡単に伝達できる。投与情報に付帯する潜在的な情報や修飾的な情報を伝えるために、この要素に叙述的な記述でそれらを含める必要がある場合がある。 
-*注釈は、計算可能な「変更」情報を伝達するために使用されるべきではない*。 （ユーザの行動を強制することはほとんど不可能であるため、これはSHOULDである）。</t>
+    <t>「行政に関する情報」(Gyōsei ni kansuru jōhō)</t>
+  </si>
+  <si>
+    <t>「他の属性では伝えられない薬剤投与に関する追加情報」</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1256,11 +1220,10 @@
     <t>MedicationAdministration.dosage</t>
   </si>
   <si>
-    <t>Details of how medication was taken　薬の服用方法の詳細</t>
-  </si>
-  <si>
-    <t>Describes the medication dosage information details e.g. dose, rate, site, route, etc.
-投薬量情報の詳細を説明する。線量、率、場所、ルートなど。</t>
+    <t>薬の服用方法の詳細</t>
+  </si>
+  <si>
+    <t>医薬品の投薬量、投与速度、投与部位、経路などの詳細情報を説明します。</t>
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
@@ -1282,14 +1245,11 @@
     <t>MedicationAdministration.dosage.text</t>
   </si>
   <si>
-    <t>Free text dosage instructions e.g. SIG　フリーテキストの投与方法の説明　SIG:用法</t>
-  </si>
-  <si>
-    <t>Free text dosage can be used for cases where the dosage administered is too complex to code. When coded dosage is present, the free text dosage may still be present for display to humans.--The dosage instructions should reflect the dosage of the medication that was administered.
-フリーテキストの投与量用法は、投与される投与量や用法が複雑すぎてコーディングできない場合に使用できる。コード化された投与量や用法が存在する場合、フリーテキストの投与量や用法は、人間に表示するためにまだ存在している可能性がある。
-投与量や用法のこの指示は、実際に投与される薬の投与量や用法を反映する必要がある。</t>
+    <t>自由入力の投薬指示、例：SIG</t>
+  </si>
+  <si>
+    <t>自由に記述できる用量は、投与された用量が複雑すぎてコード化できない場合に使用できます。コード化された用量がある場合でも、ヒトに表示するために自由なテキスト用量がまだ存在する場合があります。
+投薬の投与量に関する指示は、実際に投与された薬剤の用量を反映する必要があります。</t>
   </si>
   <si>
     <t>.text</t>
@@ -1298,18 +1258,19 @@
     <t>MedicationAdministration.dosage.site</t>
   </si>
   <si>
-    <t>Body site administered to　投与部位</t>
-  </si>
-  <si>
-    <t>A coded specification of the anatomic site where the medication first entered the body.  For example, "left arm".
-薬が最初に体内に入った解剖学的部位のコード化された記述。たとえば、「左腕」。</t>
-  </si>
-  <si>
-    <t>If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [bodySite](extension-bodysite.html).  May be a summary code, or a reference to a very precise definition of the location, or both.
-ユースケースでBodySiteリソースの属性が必要な場合（たとえば、個別に識別して追跡するため）、標準の拡張機能[bodySite]（extension-bodysite.html）を使用する。要約コード、または場所の非常に正確な定義への参照、あるいはその両方である可能性がある。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationBodySiteJAMIExternal_VS</t>
+    <t>「投与された体の部位」(Touyo sareta karada no bubui)</t>
+  </si>
+  <si>
+    <t>薬剤が最初に体内に入った解剖学的な部位の符号化された規格。例えば、「左腕」。</t>
+  </si>
+  <si>
+    <t>「もし使用用途がBodySiteリソースから属性を必要とする場合（例えば、個別に識別および追跡するため）は、標準の拡張子[bodySite]（extension-bodysite.html）を使用してください。要約コードであるか、非常に正確な位置の定義への参照であるか、双方である可能性があります。」</t>
+  </si>
+  <si>
+    <t>「薬剤が体内に入るか、体表面に塗布される場所を示すコード化された概念。」</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
   </si>
   <si>
     <t>.approachSiteCode</t>
@@ -1321,14 +1282,16 @@
     <t>MedicationAdministration.dosage.route</t>
   </si>
   <si>
-    <t>Path of substance into body　体への投与経路</t>
-  </si>
-  <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto the patient.  For example, topical, intravenous, etc.
-患者への、または患者への治療薬の投与経路または生理学的経路を指定するコード。たとえば、局所、静脈内など。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationRouteHL70162_VS</t>
+    <t>物質の道は体中に伸びる。</t>
+  </si>
+  <si>
+    <t>治療剤の患者への内部または表面への投与のルートまたは生理学的経路を指定するコード。例えば、表面的な投与、静注など。</t>
+  </si>
+  <si>
+    <t>「治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念」</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
   </si>
   <si>
     <t>.routeCode</t>
@@ -1340,13 +1303,13 @@
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>投与方法</t>
-  </si>
-  <si>
-    <t>ターミノロジは投与する経路あるいは剤型をあらかじめ指定するために用いられる。</t>
-  </si>
-  <si>
-    <t>コード化された値は体内に薬剤が投与される方法を示している。注射ではよく使われる。たとえば、緩徐に注入、深部に静注など。</t>
+    <t>「薬剤がどのように投与されたか」</t>
+  </si>
+  <si>
+    <t>薬剤が体内または体表に導入される方法を示すコード化された値。 この属性は通常、非Populatedでありません。 通常、注射に使用されます。 たとえば、スロープッシュ、深いIV。</t>
+  </si>
+  <si>
+    <t>この属性があまり使用されていない理由の一つに、方法がしばしば経路や投与形態と事前調整されていることが挙げられる。これは、経路コードまたは投与形態コードで方法が事前に調整される場合があることを意味する。また、経路コードや投与形態コードに使用されるコーディングシステムを決定する実装に関する決定は、どの程度の頻度でメソッドコードが追加されるかを決定する。たとえば、経路コードや投与形態コードが方法コードを事前調整する場合、この属性はあまり追加されないかもしれない。事前調整が行われていない場合、方法コードが頻繁に使用される可能性がある。</t>
   </si>
   <si>
     <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
@@ -1361,294 +1324,26 @@
     <t>RXR-4-Administration Method</t>
   </si>
   <si>
-    <t>MedicationAdministration.dosage.method.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
+    <t>MedicationAdministration.dosage.dose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
-    <t>用語システムによって定義されたコード / Code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>用語システムによって定義されたコードへの参照。 / A reference to a code defined by a terminology system.</t>
-  </si>
-  <si>
-    <t>コードは、列挙されたCTなどの非常に正式な定義まで、列挙またはコードリストで非常にさりげなく定義される場合があります。詳細については、HL7 V3コアプリンシップを参照してください。コーディングの順序付けは未定義であり、意味を推測するために使用されません。一般に、せいぜい、コーディング値の1つのみがuserselected = trueとしてラベル付けされます。 / Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
-  </si>
-  <si>
-    <t>コードシステム内の代替エンコーディング、および他のコードシステムへの翻訳が可能になります。 / Allows for alternative encodings within a code system, and translations to other code systems.</t>
-  </si>
-  <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit1</t>
-  </si>
-  <si>
-    <t>unitDigit1</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コード</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法１桁コードを識別するURI。</t>
-  </si>
-  <si>
-    <t>コードは臨時で列記したものや、コードのリストからSNOMED CTのように公式に定義されたものまである（HL7 v3 core principle を参照)。FHIR自体ではコーディング規約を定めてはいないし、意味を暗示するために利用されない(SHALL NOT)。一般的に UserSelected = trueの場合には一つのコードシステムが使われる。</t>
-  </si>
-  <si>
-    <t>他のコードシステムへの変換や代替のコードシステムを使ってエンコードしてもよい。</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIBasicUsage_VS</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit1.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit1.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit1.system</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding.system</t>
-  </si>
-  <si>
-    <t>用語システムのアイデンティティ / Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>コード内のシンボルの意味を定義するコードシステムの識別。 / The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>uriは、oid（urn：oid：...）またはuuid（urn：uuid：...）である場合があります。OIDとUUIDは、HL7 OIDレジストリへの参照となります。それ以外の場合、URIは、FHIRの特別なURIを定義したHL7のリストから来るか、システムを明確かつ明確に確立する定義を参照する必要があります。 / The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>シンボルの定義のソースについて明確である必要があります。 / Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.30</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit1.version</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding.version</t>
-  </si>
-  <si>
-    <t>システムのバージョン - 関連する場合 / Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>このコードを選択するときに使用されたコードシステムのバージョン。コードの意味がバージョン全体で一貫しているため、適切にメンテナンスしたコードシステムでは報告されたバージョンを必要としないことに注意してください。ただし、これは一貫して保証することはできず、意味が一貫していることが保証されていない場合、バージョンを交換する必要があります。 / The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>用語がコードシステムバージョンを識別するために使用する文字列を明確に定義していない場合、推奨は、そのバージョンがバージョンの日付として公式に公開された日付（FHIR日付形式で表現）を使用することです。 / Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit1.code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding.code</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル / Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>システムによって定義された構文のシンボル。シンボルは、定義されたコードまたはコーディングシステムによって定義された構文の式（例：調整後）である場合があります。 / A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>システム内の特定のコードを参照する必要があります。 / Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit1.display</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding.display</t>
-  </si>
-  <si>
-    <t>システムによって定義された表現 / Representation defined by the system</t>
-  </si>
-  <si>
-    <t>システムのルールに従って、システム内のコードの意味の表現。 / A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>システムを知らない読者のために、コードの人間の読み取り可能な意味を持ち込むことができる必要があります。 / Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit1.userSelected</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択された場合 / If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>このコーディングがユーザーによって直接選択されたことを示します。利用可能なアイテムのピックリスト（コードまたはディスプレイ）。 / Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>一連の代替案の中で、直接選択されたコードが新しい翻訳の最も適切な出発点です。この要素の使用とその結果をより完全に明確にするためには、「直接選択された」ことについては曖昧さがあり、取引パートナー契約が必要になる場合があります。 / Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>これは、臨床安全基準として特定されています - この正確なシステム/コードペアは、いくつかのルールまたは言語処理に基づいてシステムによって推測されるのではなく、明示的に選択されたことです。 / This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit2</t>
-  </si>
-  <si>
-    <t>unitDigit2</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コード</t>
-  </si>
-  <si>
-    <t>投与⽅法に対応するJAMI 用法コード表基本用法2桁コードを識別するURI。２桁コードurn:oid:1.2.392.200250.2.2.20.40</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationMethodJAMIDetailUsage_VS</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit2.id</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit2.extension</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit2.system</t>
-  </si>
-  <si>
-    <t>urn:oid:1.2.392.200250.2.2.20.40</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit2.version</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit2.code</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit2.display</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.coding:unitDigit2.userSelected</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.method.text</t>
-  </si>
-  <si>
-    <t>投与⽅法のテキスト表現</t>
-  </si>
-  <si>
-    <t>投与⽅法のテキスト表現。コードで指定できない場合、本要素で文字列として指定してもよい。</t>
-  </si>
-  <si>
-    <t>textエレメントはcodingのdisplayNameエレメントと一致することがよくある。</t>
-  </si>
-  <si>
-    <t>ターミノロジ由来のコードは必ずしも人間が使う言葉の全てのニュアンスを含めた正確な意味を捉えているわけではなく、適切なコードが見つからない場合もある。そのような場合でもtextエレメントは元々の意味のすべてを捉えるために使うことができる。</t>
-  </si>
-  <si>
-    <t>CodeableConcept.text</t>
-  </si>
-  <si>
-    <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>C*E.9. But note many systems use C*E.2 for this</t>
-  </si>
-  <si>
-    <t>MedicationAdministration.dosage.dose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Amount of medication per dose　用量あたりの投薬量</t>
-  </si>
-  <si>
-    <t>The amount of the medication given at one administration event.   Use this value when the administration is essentially an instantaneous event such as a swallowing a tablet or giving an injection.
-1回の投与イベントで投与される薬剤の量。この値は、投与が錠剤の飲み込みや注射などの本質的に瞬間的なイベントである場合に使用する。</t>
-  </si>
-  <si>
-    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:コンパレータは、単純なQuantityで使用されません / The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>1回あたりの薬剤量 (Ikka atari no yakuzai-ryō)</t>
+  </si>
+  <si>
+    <t>一回の投与イベントで与えられる薬剤の量。この値は、錠剤を飲んだり注射をしたりするような、本質的に瞬時のイベントである場合に使用します。</t>
+  </si>
+  <si>
+    <t>「もし投与速度が即時でない場合、単回の投与期間中に投与される総量を示すことができます。」</t>
+  </si>
+  <si>
+    <t>.doseQuantity</t>
+  </si>
+  <si>
+    <t>RXA-6 Administered Amount / RXA-7 Administered Units</t>
   </si>
   <si>
     <t>MedicationAdministration.dosage.rate[x]</t>
@@ -1658,16 +1353,13 @@
 Quantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>Dose quantity per unit of time　単位時間あたりの用量</t>
-  </si>
-  <si>
-    <t>Identifies the speed with which the medication was or will be introduced into the patient.  Typically, the rate for an infusion e.g. 100 ml per 1 hour or 100 ml/hr.  May also be expressed as a rate per unit of time, e.g. 500 ml per 2 hours.  Other examples:  200 mcg/min or 200 mcg/1 minute; 1 liter/8 hours.
-薬が患者に導入された、または導入される予定の速度を識別する。
-通常、注入の速度。 1時間あたり100mlまたは100ml/時。単位時間あたりのレートとして表すこともできる。 2時間あたり500ml。その他の例：200mcg/分または200mcg/1分。 1リットル/8時間。</t>
-  </si>
-  <si>
-    <t>If the rate changes over time, and you want to capture this in MedicationAdministration, then each change should be captured as a distinct MedicationAdministration, with a specific MedicationAdministration.dosage.rate, and the date time when the rate change occurred. Typically, the MedicationAdministration.dosage.rate element is not used to convey an average rate.
-レートが時間の経過とともに変化し、これをMedicationAdministrationで記述する場合は、各変更を、特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時を使用して、個別のMedicationAdministrationとして記述する必要がある。通常、MedicationAdministration.dosage.rate要素は、平均レートを伝達するためには使用されない。</t>
+    <t>「時間当たりの投与量」</t>
+  </si>
+  <si>
+    <t>患者に投与されたあるいは投与される薬剤の導入速度を特定します。通常、投与速度は、100 ml / 1時間、または100 ml /時間（時間あたり100 ml）のような輸液の速度として表されます。時間単位あたりの速度として表される場合もあります。例えば、500 ml / 2時間のように。その他の例：200 mcg /分あるいは1分間当たり200 mcg；1リットル/8時間。</t>
+  </si>
+  <si>
+    <t>もしレートが時間の経過とともに変化する場合、かつそれをMedicationAdministrationに取り込む場合は、それぞれの変化を特定のMedicationAdministration.dosage.rateと、レート変更が発生した日時で捉える必要があります。通常、MedicationAdministration.dosage.rate要素は平均レートを伝えるために使用されません。</t>
   </si>
   <si>
     <t>.rateQuantity</t>
@@ -1683,11 +1375,10 @@
 </t>
   </si>
   <si>
-    <t>A list of events of interest in the lifecycle　ライフサイクルで関心のあるイベントのリスト</t>
-  </si>
-  <si>
-    <t>A summary of the events of interest that have occurred, such as when the administration was verified.
-投与が確認されたときなど、発生した関連のあるベントのサマリー。</t>
+    <t>「ライフサイクルで興味深いイベントのリスト」</t>
+  </si>
+  <si>
+    <t>「行政が検証された時などに起こった興味深い出来事の要約」</t>
   </si>
   <si>
     <t>この要請のすべてのバージョンの起源が含まれているわけではない可能性があります。ただし、「関連性」または重要と見なされるものに限定されます。それに含まれる証跡には、このリソースの現在のバージョンに関連するものは含まれません。 （そのプロバイナンスが「関連性のある」変更である場合、後の更新の一部として追加する必要があります。その時までは、このバージョンを指すプロバイナンスとして直接クエリできます。All Provenancesは、この要求の過去のバージョンを主題として持つ必要があります。</t>
@@ -2000,7 +1691,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO84"/>
+  <dimension ref="A1:AO64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2009,8 +1700,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="68.30859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.66015625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.53515625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="19.1484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -2018,7 +1709,7 @@
     <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="193.69921875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.76953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2026,13 +1717,13 @@
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.53125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="145.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="69.23046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.77734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="14.46484375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -4322,43 +4013,43 @@
         <v>38</v>
       </c>
       <c r="T20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
@@ -4376,13 +4067,13 @@
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4390,10 +4081,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4419,13 +4110,13 @@
         <v>144</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4439,7 +4130,7 @@
         <v>38</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="U21" t="s" s="2">
         <v>38</v>
@@ -4475,7 +4166,7 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
@@ -4493,13 +4184,13 @@
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4507,10 +4198,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4533,13 +4224,13 @@
         <v>48</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4590,7 +4281,7 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
@@ -4608,13 +4299,13 @@
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4622,10 +4313,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4648,16 +4339,16 @@
         <v>48</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4707,7 +4398,7 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
@@ -4725,13 +4416,13 @@
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4739,13 +4430,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>128</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>38</v>
@@ -4770,13 +4461,13 @@
         <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4858,7 +4549,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>143</v>
@@ -4973,7 +4664,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>150</v>
@@ -5090,7 +4781,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>157</v>
@@ -5209,7 +4900,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>169</v>
@@ -5328,7 +5019,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>181</v>
@@ -5357,10 +5048,10 @@
         <v>61</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="N29" t="s" s="2">
         <v>184</v>
@@ -5373,49 +5064,49 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="T29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
@@ -5433,13 +5124,13 @@
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5447,10 +5138,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5476,13 +5167,13 @@
         <v>144</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5496,7 +5187,7 @@
         <v>38</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>38</v>
@@ -5532,7 +5223,7 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
@@ -5550,13 +5241,13 @@
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5564,10 +5255,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5590,13 +5281,13 @@
         <v>48</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5647,7 +5338,7 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
@@ -5665,13 +5356,13 @@
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5679,10 +5370,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5705,16 +5396,16 @@
         <v>48</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5764,7 +5455,7 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
@@ -5782,13 +5473,13 @@
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5796,10 +5487,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5825,10 +5516,10 @@
         <v>61</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5879,7 +5570,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5894,10 +5585,10 @@
         <v>59</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5911,10 +5602,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5937,13 +5628,13 @@
         <v>48</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5994,7 +5685,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -6009,10 +5700,10 @@
         <v>59</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -6026,10 +5717,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6055,13 +5746,13 @@
         <v>67</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6090,10 +5781,10 @@
         <v>162</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -6111,7 +5802,7 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>47</v>
@@ -6126,16 +5817,16 @@
         <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
@@ -6143,10 +5834,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6172,13 +5863,13 @@
         <v>170</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6204,14 +5895,14 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>263</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
       </c>
@@ -6228,7 +5919,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -6243,16 +5934,16 @@
         <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -6260,10 +5951,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6289,10 +5980,10 @@
         <v>170</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6322,10 +6013,10 @@
         <v>71</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6343,7 +6034,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6361,7 +6052,7 @@
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
@@ -6375,10 +6066,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6401,16 +6092,16 @@
         <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6436,13 +6127,13 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6460,7 +6151,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>47</v>
@@ -6475,16 +6166,16 @@
         <v>59</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6492,10 +6183,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6518,17 +6209,15 @@
         <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>38</v>
@@ -6577,7 +6266,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>47</v>
@@ -6592,16 +6281,16 @@
         <v>59</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6609,10 +6298,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6635,17 +6324,15 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>38</v>
@@ -6694,7 +6381,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6709,16 +6396,16 @@
         <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6726,10 +6413,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6752,17 +6439,15 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>38</v>
@@ -6811,7 +6496,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6829,10 +6514,10 @@
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6843,10 +6528,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6869,17 +6554,15 @@
         <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>38</v>
@@ -6928,7 +6611,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>47</v>
@@ -6943,16 +6626,16 @@
         <v>59</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -6960,10 +6643,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6986,13 +6669,13 @@
         <v>48</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7043,7 +6726,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -7058,16 +6741,16 @@
         <v>59</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -7075,10 +6758,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7104,10 +6787,10 @@
         <v>144</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7190,10 +6873,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7219,10 +6902,10 @@
         <v>92</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>125</v>
@@ -7307,14 +6990,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7336,10 +7019,10 @@
         <v>92</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>125</v>
@@ -7394,7 +7077,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7426,10 +7109,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7455,10 +7138,10 @@
         <v>170</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7485,13 +7168,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7509,7 +7192,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7524,10 +7207,10 @@
         <v>59</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7541,10 +7224,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7567,13 +7250,13 @@
         <v>48</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7624,7 +7307,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>47</v>
@@ -7639,10 +7322,10 @@
         <v>59</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7656,10 +7339,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7685,10 +7368,10 @@
         <v>170</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7715,13 +7398,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7739,7 +7422,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7754,16 +7437,16 @@
         <v>59</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7771,10 +7454,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7797,16 +7480,16 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7856,7 +7539,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7871,27 +7554,27 @@
         <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7914,20 +7597,18 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>38</v>
       </c>
@@ -7975,7 +7656,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7990,16 +7671,16 @@
         <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -8007,10 +7688,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8033,17 +7714,15 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>38</v>
@@ -8092,7 +7771,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -8110,13 +7789,13 @@
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -8124,10 +7803,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8150,17 +7829,15 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>38</v>
@@ -8209,7 +7886,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -8224,10 +7901,10 @@
         <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -8241,10 +7918,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8267,13 +7944,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8324,7 +8001,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8336,13 +8013,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8356,10 +8033,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8385,10 +8062,10 @@
         <v>144</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8471,10 +8148,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8500,10 +8177,10 @@
         <v>92</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>125</v>
@@ -8588,14 +8265,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8617,10 +8294,10 @@
         <v>92</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>125</v>
@@ -8675,7 +8352,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8707,10 +8384,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8736,10 +8413,10 @@
         <v>144</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8790,7 +8467,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8808,7 +8485,7 @@
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
@@ -8822,10 +8499,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8851,13 +8528,13 @@
         <v>170</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8883,11 +8560,13 @@
         <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y59" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="Z59" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>38</v>
@@ -8905,7 +8584,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8923,13 +8602,13 @@
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>
@@ -8937,10 +8616,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8966,14 +8645,12 @@
         <v>170</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>38</v>
@@ -8998,11 +8675,13 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y60" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="Z60" t="s" s="2">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -9020,7 +8699,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -9038,13 +8717,13 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -9052,10 +8731,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9081,17 +8760,15 @@
         <v>170</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>414</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>38</v>
       </c>
@@ -9115,13 +8792,13 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -9139,7 +8816,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -9157,13 +8834,13 @@
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -9171,10 +8848,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9197,15 +8874,17 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>144</v>
+        <v>416</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>145</v>
+        <v>417</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>418</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>38</v>
@@ -9254,7 +8933,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>147</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -9266,19 +8945,19 @@
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>148</v>
+        <v>420</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>38</v>
+        <v>421</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -9286,21 +8965,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -9312,16 +8991,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>92</v>
+        <v>423</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>151</v>
+        <v>424</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>152</v>
+        <v>425</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>153</v>
+        <v>426</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9359,43 +9038,43 @@
         <v>38</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>155</v>
+        <v>422</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>148</v>
+        <v>427</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>38</v>
+        <v>428</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>38</v>
@@ -9403,10 +9082,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9426,23 +9105,21 @@
         <v>38</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>38</v>
       </c>
@@ -9478,17 +9155,19 @@
         <v>38</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC64" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="AD64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9500,2371 +9179,21 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>429</v>
+        <v>38</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="D65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E65" s="2"/>
-      <c r="F65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G65" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J65" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K65" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="P65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q65" s="2"/>
-      <c r="R65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y65" s="2"/>
-      <c r="Z65" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF65" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E66" s="2"/>
-      <c r="F66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G66" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q66" s="2"/>
-      <c r="R66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="E67" s="2"/>
-      <c r="F67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K67" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O67" s="2"/>
-      <c r="P67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB67" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E68" s="2"/>
-      <c r="F68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K68" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q68" s="2"/>
-      <c r="R68" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="S68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AO68" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E69" s="2"/>
-      <c r="F69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J69" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K69" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O69" s="2"/>
-      <c r="P69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q69" s="2"/>
-      <c r="R69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL69" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM69" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AO69" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C70" s="2"/>
-      <c r="D70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J70" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K70" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="P70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AG70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH70" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL70" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AO70" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C71" s="2"/>
-      <c r="D71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J71" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="P71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q71" s="2"/>
-      <c r="R71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL71" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AM71" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AO71" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="B72" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C72" s="2"/>
-      <c r="D72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J72" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K72" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="P72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q72" s="2"/>
-      <c r="R72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF72" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG72" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH72" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ72" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN72" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AO72" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="P73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y73" s="2"/>
-      <c r="Z73" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="C74" s="2"/>
-      <c r="D74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G74" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q74" s="2"/>
-      <c r="R74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO74" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="C75" s="2"/>
-      <c r="D75" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="E75" s="2"/>
-      <c r="F75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O75" s="2"/>
-      <c r="P75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q75" s="2"/>
-      <c r="R75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="AM75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN75" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="C76" s="2"/>
-      <c r="D76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="G76" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J76" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="P76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="S76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG76" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH76" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="AM76" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN76" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AO76" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="C77" s="2"/>
-      <c r="D77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O77" s="2"/>
-      <c r="P77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN77" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="AO77" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C78" s="2"/>
-      <c r="D78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E78" s="2"/>
-      <c r="F78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="P78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q78" s="2"/>
-      <c r="R78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AO78" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C79" s="2"/>
-      <c r="D79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E79" s="2"/>
-      <c r="F79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="M79" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="P79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AO79" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="B81" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E81" s="2"/>
-      <c r="F81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="P81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q81" s="2"/>
-      <c r="R81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN81" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AO81" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E82" s="2"/>
-      <c r="F82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="O82" s="2"/>
-      <c r="P82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>512</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN82" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E83" s="2"/>
-      <c r="F83" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="O83" s="2"/>
-      <c r="P83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q83" s="2"/>
-      <c r="R83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>519</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN83" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="B84" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="C84" s="2"/>
-      <c r="D84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="E84" s="2"/>
-      <c r="F84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O84" s="2"/>
-      <c r="P84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q84" s="2"/>
-      <c r="R84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN84" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO84" t="s" s="2">
         <v>38</v>
       </c>
     </row>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
+  </si>
+  <si>
+    <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -1838,13 +1842,13 @@
         <v>38</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
         <v>38</v>
@@ -1858,10 +1862,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1872,7 +1876,7 @@
         <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>38</v>
@@ -1881,19 +1885,19 @@
         <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1943,13 +1947,13 @@
         <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>38</v>
@@ -1975,10 +1979,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1989,7 +1993,7 @@
         <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>38</v>
@@ -1998,16 +2002,16 @@
         <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2058,19 +2062,19 @@
         <v>38</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>38</v>
@@ -2090,10 +2094,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2104,28 +2108,28 @@
         <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2175,19 +2179,19 @@
         <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>38</v>
@@ -2207,10 +2211,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2221,7 +2225,7 @@
         <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>38</v>
@@ -2233,16 +2237,16 @@
         <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2268,13 +2272,13 @@
         <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>38</v>
@@ -2292,19 +2296,19 @@
         <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>38</v>
@@ -2324,21 +2328,21 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>38</v>
@@ -2350,16 +2354,16 @@
         <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2409,25 +2413,25 @@
         <v>38</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>38</v>
@@ -2441,14 +2445,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2467,16 +2471,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2526,7 +2530,7 @@
         <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>39</v>
@@ -2544,7 +2548,7 @@
         <v>38</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>38</v>
@@ -2558,10 +2562,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2584,13 +2588,13 @@
         <v>38</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -2629,17 +2633,17 @@
         <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC8" s="2"/>
       <c r="AD8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>39</v>
@@ -2651,7 +2655,7 @@
         <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>38</v>
@@ -2671,13 +2675,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>38</v>
@@ -2687,7 +2691,7 @@
         <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>38</v>
@@ -2699,13 +2703,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -2756,7 +2760,7 @@
         <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>39</v>
@@ -2765,10 +2769,10 @@
         <v>40</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>38</v>
@@ -2788,13 +2792,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>38</v>
@@ -2804,7 +2808,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>38</v>
@@ -2816,13 +2820,13 @@
         <v>38</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2873,7 +2877,7 @@
         <v>38</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -2882,10 +2886,10 @@
         <v>40</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>38</v>
@@ -2905,13 +2909,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>38</v>
@@ -2921,7 +2925,7 @@
         <v>39</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>38</v>
@@ -2933,13 +2937,13 @@
         <v>38</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2990,7 +2994,7 @@
         <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>39</v>
@@ -2999,10 +3003,10 @@
         <v>40</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>38</v>
@@ -3022,13 +3026,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>38</v>
@@ -3050,13 +3054,13 @@
         <v>38</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3107,7 +3111,7 @@
         <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>39</v>
@@ -3116,10 +3120,10 @@
         <v>40</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>38</v>
@@ -3139,14 +3143,14 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3159,25 +3163,25 @@
         <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>38</v>
@@ -3226,7 +3230,7 @@
         <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>39</v>
@@ -3238,13 +3242,13 @@
         <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>38</v>
@@ -3258,10 +3262,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3269,7 +3273,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
@@ -3284,16 +3288,16 @@
         <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3331,17 +3335,17 @@
         <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>39</v>
@@ -3353,16 +3357,16 @@
         <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>38</v>
@@ -3373,23 +3377,23 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>38</v>
@@ -3401,16 +3405,16 @@
         <v>38</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3460,7 +3464,7 @@
         <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>39</v>
@@ -3472,16 +3476,16 @@
         <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>38</v>
@@ -3492,10 +3496,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3506,7 +3510,7 @@
         <v>39</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>38</v>
@@ -3518,13 +3522,13 @@
         <v>38</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3575,13 +3579,13 @@
         <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>38</v>
@@ -3593,7 +3597,7 @@
         <v>38</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>38</v>
@@ -3607,14 +3611,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3633,16 +3637,16 @@
         <v>38</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3680,19 +3684,19 @@
         <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>39</v>
@@ -3704,13 +3708,13 @@
         <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>38</v>
@@ -3724,10 +3728,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3738,31 +3742,31 @@
         <v>39</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>38</v>
@@ -3787,13 +3791,13 @@
         <v>38</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>38</v>
@@ -3811,31 +3815,31 @@
         <v>38</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>38</v>
@@ -3843,10 +3847,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3857,7 +3861,7 @@
         <v>39</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>38</v>
@@ -3866,22 +3870,22 @@
         <v>38</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>38</v>
@@ -3906,13 +3910,13 @@
         <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>38</v>
@@ -3930,31 +3934,31 @@
         <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>38</v>
@@ -3962,10 +3966,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3973,10 +3977,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>38</v>
@@ -3985,29 +3989,29 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>38</v>
@@ -4049,31 +4053,31 @@
         <v>38</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>38</v>
@@ -4081,10 +4085,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4092,10 +4096,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>38</v>
@@ -4104,19 +4108,19 @@
         <v>38</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4166,31 +4170,31 @@
         <v>38</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>38</v>
@@ -4198,10 +4202,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4212,7 +4216,7 @@
         <v>39</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>38</v>
@@ -4221,16 +4225,16 @@
         <v>38</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4281,31 +4285,31 @@
         <v>38</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>38</v>
@@ -4313,10 +4317,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4327,7 +4331,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>38</v>
@@ -4336,19 +4340,19 @@
         <v>38</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4398,31 +4402,31 @@
         <v>38</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>38</v>
@@ -4430,13 +4434,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>38</v>
@@ -4458,16 +4462,16 @@
         <v>38</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4517,7 +4521,7 @@
         <v>38</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>39</v>
@@ -4529,16 +4533,16 @@
         <v>38</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>38</v>
@@ -4549,10 +4553,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4563,7 +4567,7 @@
         <v>39</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>38</v>
@@ -4575,13 +4579,13 @@
         <v>38</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4632,13 +4636,13 @@
         <v>38</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>38</v>
@@ -4650,7 +4654,7 @@
         <v>38</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>38</v>
@@ -4664,14 +4668,14 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4690,16 +4694,16 @@
         <v>38</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4737,19 +4741,19 @@
         <v>38</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>39</v>
@@ -4761,13 +4765,13 @@
         <v>38</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>38</v>
@@ -4781,10 +4785,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4795,31 +4799,31 @@
         <v>39</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>38</v>
@@ -4844,13 +4848,13 @@
         <v>38</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>38</v>
@@ -4868,31 +4872,31 @@
         <v>38</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>38</v>
@@ -4900,10 +4904,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4914,7 +4918,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>38</v>
@@ -4923,22 +4927,22 @@
         <v>38</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>38</v>
@@ -4963,13 +4967,13 @@
         <v>38</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>38</v>
@@ -4987,31 +4991,31 @@
         <v>38</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>38</v>
@@ -5019,10 +5023,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5030,10 +5034,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>38</v>
@@ -5042,29 +5046,29 @@
         <v>38</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>38</v>
@@ -5106,31 +5110,31 @@
         <v>38</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>38</v>
@@ -5138,10 +5142,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5149,10 +5153,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>38</v>
@@ -5161,19 +5165,19 @@
         <v>38</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5223,31 +5227,31 @@
         <v>38</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>38</v>
@@ -5255,10 +5259,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5269,7 +5273,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>38</v>
@@ -5278,16 +5282,16 @@
         <v>38</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5338,31 +5342,31 @@
         <v>38</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>38</v>
@@ -5370,10 +5374,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5384,7 +5388,7 @@
         <v>39</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>38</v>
@@ -5393,19 +5397,19 @@
         <v>38</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5455,31 +5459,31 @@
         <v>38</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>38</v>
@@ -5487,10 +5491,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5510,16 +5514,16 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5570,7 +5574,7 @@
         <v>38</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>39</v>
@@ -5582,13 +5586,13 @@
         <v>38</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>38</v>
@@ -5602,10 +5606,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5625,16 +5629,16 @@
         <v>38</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5685,7 +5689,7 @@
         <v>38</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>39</v>
@@ -5697,13 +5701,13 @@
         <v>38</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>38</v>
@@ -5717,10 +5721,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5728,31 +5732,31 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5778,13 +5782,13 @@
         <v>38</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>38</v>
@@ -5802,31 +5806,31 @@
         <v>38</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>38</v>
@@ -5834,10 +5838,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5860,16 +5864,16 @@
         <v>38</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5895,13 +5899,13 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -5919,7 +5923,7 @@
         <v>38</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>39</v>
@@ -5931,19 +5935,19 @@
         <v>38</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -5951,10 +5955,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5965,7 +5969,7 @@
         <v>39</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>38</v>
@@ -5977,13 +5981,13 @@
         <v>38</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6010,13 +6014,13 @@
         <v>38</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
@@ -6034,25 +6038,25 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
@@ -6066,10 +6070,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6077,10 +6081,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>38</v>
@@ -6089,19 +6093,19 @@
         <v>38</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6127,13 +6131,13 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
@@ -6151,31 +6155,31 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6183,10 +6187,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6194,10 +6198,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>38</v>
@@ -6206,16 +6210,16 @@
         <v>38</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6266,31 +6270,31 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6298,10 +6302,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6312,7 +6316,7 @@
         <v>39</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>38</v>
@@ -6324,13 +6328,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6381,31 +6385,31 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6413,10 +6417,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6439,13 +6443,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6496,7 +6500,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6508,16 +6512,16 @@
         <v>38</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6528,10 +6532,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6539,10 +6543,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>38</v>
@@ -6551,16 +6555,16 @@
         <v>38</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6611,31 +6615,31 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -6643,10 +6647,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6666,16 +6670,16 @@
         <v>38</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6726,7 +6730,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6738,19 +6742,19 @@
         <v>38</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -6758,10 +6762,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6772,7 +6776,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>38</v>
@@ -6784,13 +6788,13 @@
         <v>38</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6841,13 +6845,13 @@
         <v>38</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>38</v>
@@ -6859,7 +6863,7 @@
         <v>38</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>38</v>
@@ -6873,14 +6877,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6899,16 +6903,16 @@
         <v>38</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6958,7 +6962,7 @@
         <v>38</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>39</v>
@@ -6970,13 +6974,13 @@
         <v>38</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>38</v>
@@ -6990,14 +6994,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7010,25 +7014,25 @@
         <v>38</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>38</v>
@@ -7077,7 +7081,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7089,13 +7093,13 @@
         <v>38</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>38</v>
@@ -7109,10 +7113,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7123,7 +7127,7 @@
         <v>39</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>38</v>
@@ -7135,13 +7139,13 @@
         <v>38</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7168,13 +7172,13 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
@@ -7192,25 +7196,25 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7224,10 +7228,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7235,10 +7239,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>38</v>
@@ -7247,16 +7251,16 @@
         <v>38</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7307,25 +7311,25 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7339,10 +7343,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7365,13 +7369,13 @@
         <v>38</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7398,13 +7402,13 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
@@ -7422,7 +7426,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7434,19 +7438,19 @@
         <v>38</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7454,10 +7458,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7480,16 +7484,16 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7539,7 +7543,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7551,30 +7555,30 @@
         <v>38</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7585,7 +7589,7 @@
         <v>39</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>38</v>
@@ -7597,16 +7601,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7656,31 +7660,31 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -7688,10 +7692,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7714,13 +7718,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7771,7 +7775,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7783,19 +7787,19 @@
         <v>38</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -7803,10 +7807,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7829,13 +7833,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7886,7 +7890,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7898,13 +7902,13 @@
         <v>38</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7918,10 +7922,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7932,7 +7936,7 @@
         <v>39</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>38</v>
@@ -7944,13 +7948,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8001,25 +8005,25 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8033,10 +8037,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8047,7 +8051,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>38</v>
@@ -8059,13 +8063,13 @@
         <v>38</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8116,13 +8120,13 @@
         <v>38</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>38</v>
@@ -8134,7 +8138,7 @@
         <v>38</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>38</v>
@@ -8148,14 +8152,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8174,16 +8178,16 @@
         <v>38</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8233,7 +8237,7 @@
         <v>38</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -8245,13 +8249,13 @@
         <v>38</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>38</v>
@@ -8265,14 +8269,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8285,25 +8289,25 @@
         <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>38</v>
@@ -8352,7 +8356,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8364,13 +8368,13 @@
         <v>38</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>38</v>
@@ -8384,10 +8388,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8398,7 +8402,7 @@
         <v>39</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>38</v>
@@ -8410,13 +8414,13 @@
         <v>38</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8467,25 +8471,25 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
@@ -8499,10 +8503,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8513,7 +8517,7 @@
         <v>39</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>38</v>
@@ -8525,16 +8529,16 @@
         <v>38</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8560,13 +8564,13 @@
         <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>38</v>
@@ -8584,31 +8588,31 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>
@@ -8616,10 +8620,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8630,7 +8634,7 @@
         <v>39</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>38</v>
@@ -8642,13 +8646,13 @@
         <v>38</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8675,13 +8679,13 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
@@ -8699,31 +8703,31 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -8731,10 +8735,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8745,7 +8749,7 @@
         <v>39</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>38</v>
@@ -8757,16 +8761,16 @@
         <v>38</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8792,13 +8796,13 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
@@ -8816,31 +8820,31 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -8848,10 +8852,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8862,7 +8866,7 @@
         <v>39</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>38</v>
@@ -8874,16 +8878,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8933,31 +8937,31 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -8965,10 +8969,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8979,7 +8983,7 @@
         <v>39</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>38</v>
@@ -8991,16 +8995,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9050,31 +9054,31 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>38</v>
@@ -9082,10 +9086,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9108,16 +9112,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9167,7 +9171,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9179,13 +9183,13 @@
         <v>38</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2390" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="435">
   <si>
     <t>Property</t>
   </si>
@@ -145,7 +145,7 @@
     <t>患者への薬剤投与記録</t>
   </si>
   <si>
-    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
@@ -520,7 +520,7 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -755,11 +755,10 @@
     <t>MedicationAdministration.instantiates</t>
   </si>
   <si>
-    <t>Instantiates protocol or definition　プロトコルや定義のインスタンス化</t>
-  </si>
-  <si>
-    <t>A protocol, guideline, orderset, or other definition that was adhered to in whole or in part by this event.
-このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
+    <t>プロトコルや定義のインスタンス化</t>
+  </si>
+  <si>
+    <t>このイベントによって全体的または部分的に順守されたプロトコル、ガイドライン、オーダセット、またはその他の定義。</t>
   </si>
   <si>
     <t>Event.instantiates</t>
@@ -775,11 +774,10 @@
 </t>
   </si>
   <si>
-    <t>Part of referenced event  親イベントへの参照</t>
-  </si>
-  <si>
-    <t>A larger event of which this particular event is a component or step.
-この特定のイベントがコンポーネントまたはステップであるようなより大きな親イベント。</t>
+    <t>親イベントへの参照</t>
+  </si>
+  <si>
+    <t>この特定のイベントがコンポーネントまたはステップであるようなより大きな親イベント。</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -794,8 +792,7 @@
     <t>completed | stopped</t>
   </si>
   <si>
-    <t>Will generally be set to show that the administration has been completed.  For some long running administrations such as infusions, it is possible for an administration to be started but not completed or it may be paused while some other process is under way.
-通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
+    <t>通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
 【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
@@ -823,14 +820,10 @@
     <t>MedicationAdministration.statusReason</t>
   </si>
   <si>
-    <t>Reason administration not performed　実施されていない理由</t>
-  </si>
-  <si>
-    <t>A code indicating why the administration was not performed.　投与が実施されていない理由を示すコード</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.
-すべてのターミノロジの使用がこの一般的なパターンに適合するわけではない。場合によっては、モデルはCodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係とpre-coordinationとpost-coordinationの用語関係を管理するための独自の構造を提供する必要がある。</t>
+    <t>実施されていない理由</t>
+  </si>
+  <si>
+    <t>投与が実施されていない理由を示すコード</t>
   </si>
   <si>
     <t>example</t>
@@ -854,13 +847,10 @@
     <t>MedicationAdministration.category</t>
   </si>
   <si>
-    <t>Type of medication usage　薬が使用される区分</t>
-  </si>
-  <si>
-    <t>Indicates where the medication is expected to be consumed or administered.
-薬が消費または投与されると予想される場所区分(入院、外来、家庭等)を示す。
-inpatient | outpatient | community
- (http://terminology.hl7.org/CodeSystem/medication-admin-category)</t>
+    <t>薬が使用される区分</t>
+  </si>
+  <si>
+    <t>薬剤の摂取または投与が予想される場所を示します。</t>
   </si>
   <si>
     <t>薬剤の投与が予想される場所を記述するコード化された概念。</t>
@@ -879,15 +869,13 @@
 Reference(Medication)</t>
   </si>
   <si>
-    <t>What medication was supplied　医薬品</t>
-  </si>
-  <si>
-    <t>Identifies the medication that was administered. This is either a link to a resource representing the details of the medication or a simple attribute carrying a code that identifies the medication from a known list of medications.
-投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number, then you must reference the Medication resource.
-ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
+    <t>医薬品</t>
+  </si>
+  <si>
+    <t>投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
+  </si>
+  <si>
+    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
 厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
  なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
@@ -5872,9 +5860,7 @@
       <c r="M36" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N36" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>38</v>
@@ -5899,13 +5885,13 @@
         <v>38</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y36" t="s" s="2">
+      <c r="Z36" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>38</v>
@@ -5938,16 +5924,16 @@
         <v>60</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>38</v>
@@ -5955,10 +5941,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5984,10 +5970,10 @@
         <v>171</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6017,11 +6003,11 @@
         <v>72</v>
       </c>
       <c r="Y37" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="Z37" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="Z37" t="s" s="2">
-        <v>270</v>
-      </c>
       <c r="AA37" t="s" s="2">
         <v>38</v>
       </c>
@@ -6038,7 +6024,7 @@
         <v>38</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>39</v>
@@ -6056,7 +6042,7 @@
         <v>38</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>38</v>
@@ -6070,10 +6056,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6096,16 +6082,16 @@
         <v>49</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6131,14 +6117,14 @@
         <v>38</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Z38" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>38</v>
       </c>
@@ -6155,7 +6141,7 @@
         <v>38</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>48</v>
@@ -6170,16 +6156,16 @@
         <v>60</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AM38" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>38</v>
@@ -6187,10 +6173,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6213,13 +6199,13 @@
         <v>49</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6270,7 +6256,7 @@
         <v>38</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>48</v>
@@ -6285,16 +6271,16 @@
         <v>60</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>38</v>
@@ -6302,10 +6288,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6328,13 +6314,13 @@
         <v>38</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6385,7 +6371,7 @@
         <v>38</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>39</v>
@@ -6400,16 +6386,16 @@
         <v>60</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AL40" t="s" s="2">
+      <c r="AM40" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>38</v>
@@ -6417,10 +6403,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6443,13 +6429,13 @@
         <v>38</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6500,7 +6486,7 @@
         <v>38</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>39</v>
@@ -6518,10 +6504,10 @@
         <v>38</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>38</v>
@@ -6532,10 +6518,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6558,13 +6544,13 @@
         <v>49</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6615,7 +6601,7 @@
         <v>38</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>48</v>
@@ -6630,16 +6616,16 @@
         <v>60</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>38</v>
@@ -6647,10 +6633,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6673,13 +6659,13 @@
         <v>49</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6730,7 +6716,7 @@
         <v>38</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>39</v>
@@ -6745,16 +6731,16 @@
         <v>60</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>38</v>
@@ -6762,10 +6748,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6791,10 +6777,10 @@
         <v>145</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6877,10 +6863,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6906,10 +6892,10 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N45" t="s" s="2">
         <v>126</v>
@@ -6994,14 +6980,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7023,10 +7009,10 @@
         <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>126</v>
@@ -7081,7 +7067,7 @@
         <v>38</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>39</v>
@@ -7113,10 +7099,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7142,10 +7128,10 @@
         <v>171</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7172,14 +7158,14 @@
         <v>38</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z47" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="Z47" t="s" s="2">
-        <v>335</v>
-      </c>
       <c r="AA47" t="s" s="2">
         <v>38</v>
       </c>
@@ -7196,7 +7182,7 @@
         <v>38</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>39</v>
@@ -7211,10 +7197,10 @@
         <v>60</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>336</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>38</v>
@@ -7228,10 +7214,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7254,13 +7240,13 @@
         <v>49</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7311,7 +7297,7 @@
         <v>38</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>48</v>
@@ -7326,10 +7312,10 @@
         <v>60</v>
       </c>
       <c r="AK48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>38</v>
@@ -7343,10 +7329,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7372,10 +7358,10 @@
         <v>171</v>
       </c>
       <c r="L49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="M49" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7402,14 +7388,14 @@
         <v>38</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Z49" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="Z49" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AA49" t="s" s="2">
         <v>38</v>
       </c>
@@ -7426,7 +7412,7 @@
         <v>38</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>39</v>
@@ -7441,16 +7427,16 @@
         <v>60</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>351</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>38</v>
@@ -7458,10 +7444,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7484,16 +7470,16 @@
         <v>38</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7543,7 +7529,7 @@
         <v>38</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>39</v>
@@ -7558,27 +7544,27 @@
         <v>60</v>
       </c>
       <c r="AK50" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7601,16 +7587,16 @@
         <v>38</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7660,7 +7646,7 @@
         <v>38</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>39</v>
@@ -7675,16 +7661,16 @@
         <v>60</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>38</v>
@@ -7692,10 +7678,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7718,13 +7704,13 @@
         <v>38</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7775,7 +7761,7 @@
         <v>38</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>39</v>
@@ -7793,13 +7779,13 @@
         <v>38</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>38</v>
@@ -7807,10 +7793,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7833,13 +7819,13 @@
         <v>38</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7890,7 +7876,7 @@
         <v>38</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>39</v>
@@ -7905,10 +7891,10 @@
         <v>60</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>380</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>38</v>
@@ -7922,10 +7908,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7948,13 +7934,13 @@
         <v>38</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8005,7 +7991,7 @@
         <v>38</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>39</v>
@@ -8017,13 +8003,13 @@
         <v>38</v>
       </c>
       <c r="AJ54" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>38</v>
@@ -8037,10 +8023,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8066,10 +8052,10 @@
         <v>145</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8152,10 +8138,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8181,10 +8167,10 @@
         <v>93</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>126</v>
@@ -8269,14 +8255,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8298,10 +8284,10 @@
         <v>93</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>126</v>
@@ -8356,7 +8342,7 @@
         <v>38</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>39</v>
@@ -8388,10 +8374,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8417,10 +8403,10 @@
         <v>145</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8471,7 +8457,7 @@
         <v>38</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>39</v>
@@ -8489,7 +8475,7 @@
         <v>38</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>38</v>
@@ -8503,10 +8489,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8532,13 +8518,13 @@
         <v>171</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8564,14 +8550,14 @@
         <v>38</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>38</v>
       </c>
@@ -8588,7 +8574,7 @@
         <v>38</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>39</v>
@@ -8606,13 +8592,13 @@
         <v>38</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>38</v>
@@ -8620,10 +8606,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8649,10 +8635,10 @@
         <v>171</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8679,14 +8665,14 @@
         <v>38</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>405</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>38</v>
       </c>
@@ -8703,7 +8689,7 @@
         <v>38</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>39</v>
@@ -8721,13 +8707,13 @@
         <v>38</v>
       </c>
       <c r="AL60" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN60" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>38</v>
@@ -8735,10 +8721,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8764,13 +8750,13 @@
         <v>171</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8796,14 +8782,14 @@
         <v>38</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>38</v>
       </c>
@@ -8820,7 +8806,7 @@
         <v>38</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>39</v>
@@ -8838,13 +8824,13 @@
         <v>38</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>38</v>
@@ -8852,10 +8838,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8878,16 +8864,16 @@
         <v>38</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>417</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="M62" t="s" s="2">
+      <c r="N62" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8937,7 +8923,7 @@
         <v>38</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8955,13 +8941,13 @@
         <v>38</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>38</v>
@@ -8969,10 +8955,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8995,16 +8981,16 @@
         <v>38</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9054,7 +9040,7 @@
         <v>38</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -9072,13 +9058,13 @@
         <v>38</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>38</v>
@@ -9086,10 +9072,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9112,16 +9098,16 @@
         <v>38</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="L64" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9171,7 +9157,7 @@
         <v>38</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9189,7 +9175,7 @@
         <v>38</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>38</v>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -149,7 +149,7 @@
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -174,10 +174,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
-  </si>
-  <si>
-    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
+    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -190,7 +190,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースに関するメタデータ」</t>
+    <t>リソースに関するメタデータ</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -213,7 +213,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
+    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -232,7 +232,7 @@
     <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
   </si>
   <si>
-    <t>「リソースが書かれている基本言語。」</t>
+    <t>リソースが書かれている基本言語。</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -261,10 +261,10 @@
 </t>
   </si>
   <si>
-    <t>「人間の解釈のためのリソースのテキスト要約」</t>
-  </si>
-  <si>
-    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
+    <t>人間の解釈のためのリソースのテキスト要約</t>
+  </si>
+  <si>
+    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -290,10 +290,10 @@
     <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
   </si>
   <si>
-    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
-  </si>
-  <si>
-    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
+    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
+  </si>
+  <si>
+    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -326,7 +326,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:requestDepartment</t>
@@ -413,7 +413,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
+    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -938,7 +938,7 @@
     <t>「エピソード・オブ・ケア」は、「エンカウンター」として提供されます。</t>
   </si>
   <si>
-    <t>「薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。」</t>
+    <t>薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -960,7 +960,7 @@
 </t>
   </si>
   <si>
-    <t>「管理をサポートするための追加情報」</t>
+    <t>管理をサポートするための追加情報</t>
   </si>
   <si>
     <t>薬の投与を補助する追加情報（例えば、患者の身長や体重）。</t>
@@ -979,7 +979,7 @@
     <t>「管理の開始時刻と終了時刻」(Kanri no kaishi jikoku to shūryō jikoku)</t>
   </si>
   <si>
-    <t>「与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。」</t>
+    <t>与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1001,10 +1001,10 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰で、何をしたのか？」</t>
-  </si>
-  <si>
-    <t>「薬の投与を行った人や物、および彼らがどのように関与したかを示す。」</t>
+    <t>薬剤投与を行ったのは誰で、何をしたのか？</t>
+  </si>
+  <si>
+    <t>薬の投与を行った人や物、および彼らがどのように関与したかを示す。</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1034,7 +1034,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1044,11 +1044,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
-  </si>
-  <si>
-    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
+    <t>認識されなくても無視できない拡張機能</t>
+  </si>
+  <si>
+    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1063,7 +1063,7 @@
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
   </si>
   <si>
-    <t>「薬物管理を行った個人の役割を説明するコード」</t>
+    <t>薬物管理を行った個人の役割を説明するコード</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1085,7 +1085,7 @@
     <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
   </si>
   <si>
-    <t>「薬剤投与を行った人物または物品を示す」</t>
+    <t>薬剤投与を行った人物または物品を示す</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1103,7 +1103,7 @@
     <t>与えられた薬を説明するコード。</t>
   </si>
   <si>
-    <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
+    <t>薬剤投与が行われた理由を示すコードのセット。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1125,13 +1125,13 @@
 </t>
   </si>
   <si>
-    <t>「薬が投与された理由を支持する状態または観察」</t>
+    <t>薬が投与された理由を支持する状態または観察</t>
   </si>
   <si>
     <t>薬剤が投与された理由を支持する状態または観察。</t>
   </si>
   <si>
-    <t>「これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。」</t>
+    <t>これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1156,10 +1156,10 @@
     <t>"リクエスト管理対象として実行してください。" (Rikuesuto kanri taishou toshite jikkou shite kudasai.)</t>
   </si>
   <si>
-    <t>「管理を実行するための元の要求、指示、または権限。」</t>
-  </si>
-  <si>
-    <t>「これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。」</t>
+    <t>管理を実行するための元の要求、指示、または権限。</t>
+  </si>
+  <si>
+    <t>これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1178,7 +1178,7 @@
 </t>
   </si>
   <si>
-    <t>「投与するための装置」(touyo suru tame no souchi)</t>
+    <t>投与するための装置</t>
   </si>
   <si>
     <t>患者に薬剤を投与するのに使われる装置。例えば、特定の注入ポンプ。</t>
@@ -1200,7 +1200,7 @@
     <t>「行政に関する情報」(Gyōsei ni kansuru jōhō)</t>
   </si>
   <si>
-    <t>「他の属性では伝えられない薬剤投与に関する追加情報」</t>
+    <t>他の属性では伝えられない薬剤投与に関する追加情報</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1250,16 +1250,16 @@
     <t>MedicationAdministration.dosage.site</t>
   </si>
   <si>
-    <t>「投与された体の部位」(Touyo sareta karada no bubui)</t>
+    <t>投与された体の部位</t>
   </si>
   <si>
     <t>薬剤が最初に体内に入った解剖学的な部位の符号化された規格。例えば、「左腕」。</t>
   </si>
   <si>
-    <t>「もし使用用途がBodySiteリソースから属性を必要とする場合（例えば、個別に識別および追跡するため）は、標準の拡張子[bodySite]（extension-bodysite.html）を使用してください。要約コードであるか、非常に正確な位置の定義への参照であるか、双方である可能性があります。」</t>
-  </si>
-  <si>
-    <t>「薬剤が体内に入るか、体表面に塗布される場所を示すコード化された概念。」</t>
+    <t>もし使用用途がBodySiteリソースから属性を必要とする場合（例えば、個別に識別および追跡するため）は、標準の拡張子[bodySite]（extension-bodysite.html）を使用してください。要約コードであるか、非常に正確な位置の定義への参照であるか、双方である可能性があります。</t>
+  </si>
+  <si>
+    <t>薬剤が体内に入るか、体表面に塗布される場所を示すコード化された概念。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -1280,7 +1280,7 @@
     <t>治療剤の患者への内部または表面への投与のルートまたは生理学的経路を指定するコード。例えば、表面的な投与、静注など。</t>
   </si>
   <si>
-    <t>「治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念」</t>
+    <t>治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -1295,7 +1295,7 @@
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>「薬剤がどのように投与されたか」</t>
+    <t>薬剤がどのように投与されたか</t>
   </si>
   <si>
     <t>薬剤が体内または体表に導入される方法を示すコード化された値。 この属性は通常、非Populatedでありません。 通常、注射に使用されます。 たとえば、スロープッシュ、深いIV。</t>
@@ -1304,7 +1304,7 @@
     <t>この属性があまり使用されていない理由の一つに、方法がしばしば経路や投与形態と事前調整されていることが挙げられる。これは、経路コードまたは投与形態コードで方法が事前に調整される場合があることを意味する。また、経路コードや投与形態コードに使用されるコーディングシステムを決定する実装に関する決定は、どの程度の頻度でメソッドコードが追加されるかを決定する。たとえば、経路コードや投与形態コードが方法コードを事前調整する場合、この属性はあまり追加されないかもしれない。事前調整が行われていない場合、方法コードが頻繁に使用される可能性がある。</t>
   </si>
   <si>
-    <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
+    <t>薬剤が投与される方法を記述する暗号化された概念。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1329,7 +1329,7 @@
     <t>一回の投与イベントで与えられる薬剤の量。この値は、錠剤を飲んだり注射をしたりするような、本質的に瞬時のイベントである場合に使用します。</t>
   </si>
   <si>
-    <t>「もし投与速度が即時でない場合、単回の投与期間中に投与される総量を示すことができます。」</t>
+    <t>もし投与速度が即時でない場合、単回の投与期間中に投与される総量を示すことができます。</t>
   </si>
   <si>
     <t>.doseQuantity</t>
@@ -1345,7 +1345,7 @@
 Quantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>「時間当たりの投与量」</t>
+    <t>時間当たりの投与量</t>
   </si>
   <si>
     <t>患者に投与されたあるいは投与される薬剤の導入速度を特定します。通常、投与速度は、100 ml / 1時間、または100 ml /時間（時間あたり100 ml）のような輸液の速度として表されます。時間単位あたりの速度として表される場合もあります。例えば、500 ml / 2時間のように。その他の例：200 mcg /分あるいは1分間当たり200 mcg；1リットル/8時間。</t>
@@ -1367,10 +1367,10 @@
 </t>
   </si>
   <si>
-    <t>「ライフサイクルで興味深いイベントのリスト」</t>
-  </si>
-  <si>
-    <t>「行政が検証された時などに起こった興味深い出来事の要約」</t>
+    <t>ライフサイクルで興味深いイベントのリスト</t>
+  </si>
+  <si>
+    <t>行政が検証された時などに起こった興味深い出来事の要約</t>
   </si>
   <si>
     <t>この要請のすべてのバージョンの起源が含まれているわけではない可能性があります。ただし、「関連性」または重要と見なされるものに限定されます。それに含まれる証跡には、このリソースの現在のバージョンに関連するものは含まれません。 （そのプロバイナンスが「関連性のある」変更である場合、後の更新の一部として追加する必要があります。その時までは、このバージョンを指すプロバイナンスとして直接クエリできます。All Provenancesは、この要求の過去のバージョンを主題として持つ必要があります。</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -382,7 +382,7 @@
     <t>実施場所</t>
   </si>
   <si>
-    <t>実施場所を格納するための拡張。
+    <t>実施場所を格納するための拡張。  
 実施場所を記述した  Locationリソースへの参照。</t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>依頼医</t>
   </si>
   <si>
-    <t>依頼医を格納するための拡張。
+    <t>依頼医を格納するための拡張。  
 依頼医を記述した Practitioner  リソースへの参照。</t>
   </si>
   <si>
@@ -435,8 +435,8 @@
     <t>外部から参照されるID</t>
   </si>
   <si>
-    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。
-処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。
+    <t>このインスタンスが外部から参照されるために使われるIDである。処方箋全体としてのIDとしては使用しない。  
+処方箋内で同一の用法をまとめて表記されるRp番号はこのIdentifier elementの別スライスで表現する。それ以外に任意のIDを付与してもよい。  
 このIDは業務手順によって定められた処方オーダに対して、直接的なURL参照が適切でない場合も含めて関連付けるために使われる。この業務手順のIDは実施者によって割り当てられたものであり、リソースが更新されたりサーバからサーバに転送されたとしても固定のものとして存続する。</t>
   </si>
   <si>
@@ -792,7 +792,7 @@
     <t>completed | stopped</t>
   </si>
   <si>
-    <t>通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。
+    <t>通常、管理が完了したことを示すように設定される。輸液などの長期にわたる投与では、投与を開始しても完了しない場合や、他のプロセスの進行中に一時停止する場合がある。  
 【JP Core仕様】　completed or stopped に限定される。</t>
   </si>
   <si>
@@ -875,13 +875,11 @@
     <t>投与された薬剤を識別する。既知の薬のリストから薬を識別するコード情報を設定する。</t>
   </si>
   <si>
-    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。
-厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。
--なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。
--ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。-ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。+    <t>ひとつのtext要素と、複数のcoding 要素を記述できる。処方オーダ時に選択または入力し、実際に処方箋に印字される文字列を必ずtext要素に格納した上で、それをコード化した情報を1個以上のcoding 要素に記述する。  
+厚生労働省標準であるHOT9コード（販社指定が不要な場合にはHOT7コード）または広く流通しているYJコードを用いるか、一般名処方の場合には厚生労働省保険局一般名処方マスタのコードを使用して、Coding要素（コードsystemを識別するURI、医薬品のコード、そのコード表における医薬品の名称の3つからなる）で記述する。  
+なお、上記のいずれの標準的コードも付番されていない医薬品や医療材料の場合には、薬機法の下で使用されているGS1標準の識別コードであるGTIN(Global Trade Item Number)の調剤包装単位（最少包装単位、個別包装単位）14桁を使用する。  
+ひとつの処方薬、医療材料を複数のコード体系のコードで記述してもよく、その場合にcoding 要素を繰り返して記述する。  
+ただし、ひとつの処方薬を複数のコードで繰り返し記述する場合には、それらのコードが指し示す処方薬、医療材料は当然同一でなければならない。  
 また、処方を発行した医療機関内でのデータ利用のために、医療機関固有コード体系によるコード（ハウスコード、ローカルコード）の記述を含めてもよいが、その場合でも上述したいずれかの標準コードを同時に記述することが必要である。</t>
   </si>
   <si>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -229,7 +229,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -241,7 +241,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -287,7 +287,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -908,7 +908,7 @@
 </t>
   </si>
   <si>
-    <t>「誰が薬を受け取りましたか？」(dare ga kusuri o uketorimashita ka?)</t>
+    <t>「誰が薬を受け取りましたか？」</t>
   </si>
   <si>
     <t>薬を受け取る人、動物、またはグループ。 (Kusuri wo uketoru hito, doubutsu, matawa guruupu.)</t>
@@ -974,7 +974,7 @@
 Period</t>
   </si>
   <si>
-    <t>「管理の開始時刻と終了時刻」(Kanri no kaishi jikoku to shūryō jikoku)</t>
+    <t>「管理の開始時刻と終了時刻」</t>
   </si>
   <si>
     <t>与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。</t>
@@ -1055,7 +1055,7 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
+    <t>「パフォーマンスの種類」</t>
   </si>
   <si>
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
@@ -1080,7 +1080,7 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+    <t>「薬剤投与を行ったのは誰ですか？」</t>
   </si>
   <si>
     <t>薬剤投与を行った人物または物品を示す</t>
@@ -1195,7 +1195,7 @@
 </t>
   </si>
   <si>
-    <t>「行政に関する情報」(Gyōsei ni kansuru jōhō)</t>
+    <t>「行政に関する情報」</t>
   </si>
   <si>
     <t>他の属性では伝えられない薬剤投与に関する追加情報</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.2.0-dev</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
+++ b/jpcore-r4/develop/StructureDefinition-jp-medicationadministrationBase.xlsx
@@ -268,11 +268,11 @@
     <t>患者への薬剤投与記録</t>
   </si>
   <si>
-    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的なEncounter（診察、受診、入退院など）と結びつけます。</t>
+    <t>患者が薬剤を服用する、あるいは投与される事象を説明します。これは、錠剤を飲むだけだったり、長時間の点滴だったりすることがあります。関連するリソースは、この事象を許可された処方箋や、患者と医療従事者の具体的な出会いと結びつけます。</t>
   </si>
   <si>
     <t>dom-2:もしリソースが他のリソースに含まれている場合、そのリソースにはネストされたリソースを含めてはなりません (moshi risōsu ga hoka no risōsu ni fukumarete iru baai, sono risōsu ni wa nesuto sareta risōsu o fukumete wa narimasen). {contained.contained.empty()}
-dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。 {contained.meta.security.empty()}dom-6:資源は堅牢な管理のために物語を持つべきである。 {text.`div`.exists()}</t>
+dom-3:もしリソースが他のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含まれるリソースに参照されるべきです。 {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:もしリソースが別のリソースの中に含まれる場合、meta.versionIdまたはmeta.lastUpdatedを持つべきではありません。 {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:「もしリソースが他のリソースに含まれている場合、セキュリティラベルを持つべきではありません。」 {contained.meta.security.empty()}dom-6:「資源は堅牢な管理のために物語を持つべきである。」 {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -297,10 +297,10 @@
     <t>このアーティファクトの論理ID</t>
   </si>
   <si>
-    <t>リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。</t>
-  </si>
-  <si>
-    <t>リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。</t>
+    <t>「リソースのURLで使用される論理ID。一度割り当てられたら、この値は変更されません。」</t>
+  </si>
+  <si>
+    <t>「リソースにIDがないのは、作成操作を使用してサーバーに送信されているときだけです。」</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -313,7 +313,7 @@
 </t>
   </si>
   <si>
-    <t>リソースに関するメタデータ</t>
+    <t>「リソースに関するメタデータ」</t>
   </si>
   <si>
     <t>リソースに関するメタデータ。これはインフラストラクチャによって維持されるコンテンツです。 コンテンツの変更は、リソースのバージョン変更と常に関連しているわけではありません。</t>
@@ -336,7 +336,7 @@
     <t>このコンテンツが作成されたルールセット</t>
   </si>
   <si>
-    <t>リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。</t>
+    <t>「リソース構築時に遵守された一連のルールを指すものであり、コンテンツを処理する際に理解する必要があります。しばしば、特別なルールを定義する実装ガイドとその他のプロファイルなどを含むものです。」</t>
   </si>
   <si>
     <t>このルールセットを主張することで、取引先の限られた集団にしか内容を理解させることができず、長期的にはデータの有用性が制限されます。しかしながら、現存するヘルスエコシステムは高度に分断化しており、一般的に計算可能な形式でデータを定義、収集、交換する準備が整っていません。できる限り、実装者および/または仕様ライターはこの要素の使用を避けるべきです。使用する場合、URLは、そのナラティブとともに他のプロファイル、値セットなどを含む実装ガイドを定義する参照となります。</t>
@@ -352,10 +352,10 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」</t>
-  </si>
-  <si>
-    <t>リソースが書かれている基本言語。</t>
+    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+  </si>
+  <si>
+    <t>「リソースが書かれている基本言語。」</t>
   </si>
   <si>
     <t>言語はインデックスとアクセシビリティをサポートするために提供されます（通常、テキスト読み上げなどのサービスは言語タグを使用します）。物語のHTML言語タグは、物語に適用されます。リソース上の言語タグは、リソース内のデータから生成される他のプレゼンテーションの言語を指定するために使用できます。すべてのコンテンツが基本言語である必要はありません。Resource.languageは自動的に物語に適用されたと想定してはいけません。言語が指定されている場合、HTMLのdiv要素にも指定する必要があります（xml：langとhtml lang属性の関係に関する情報はHTML5の規則を参照）。</t>
@@ -364,7 +364,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」</t>
+    <t>「人間の言語。」(Ningen no gengo.)</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -384,10 +384,10 @@
 </t>
   </si>
   <si>
-    <t>人間の解釈のためのリソースのテキスト要約</t>
-  </si>
-  <si>
-    <t>リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。</t>
+    <t>「人間の解釈のためのリソースのテキスト要約」</t>
+  </si>
+  <si>
+    <t>「リソースの要約を含む人が読めるナビゲーションであり、リソースの内容を人に表現するために使用できます。ナビゲーションはすべての構造化されたデータをエンコードする必要はありませんが、人間がナビゲーションを読むだけで「臨床的に安全」であるために十分な詳細を含む必要があります。リソース定義には、臨床的な安全性を確保するためにナビゲーションで表現する必要があるコンテンツが定義される場合があります。」</t>
   </si>
   <si>
     <t>含まれるリソースには説明がありません。含まれないリソースには説明が必要です。場合によっては、リソースが少量のデータしか含まず、テキストだけで表現されることがあります（minOccurs = 1要素がすべて満たされている限り）。これは、情報が「テキストの塊」としてキャプチャされるレガシーシステムからのデータや、テキストが生またはナレーションされて符号化された情報が後で追加される場合に必要な場合があります。</t>
@@ -410,13 +410,13 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」</t>
-  </si>
-  <si>
-    <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
-  </si>
-  <si>
-    <t>コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。</t>
+    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+  </si>
+  <si>
+    <t>「これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。」</t>
+  </si>
+  <si>
+    <t>「コンテンツが適切に識別できる場合には、これを行うべきではありません。識別が失われると、再び復元することは非常に困難であり（文脈に依存します）、メタ要素にプロファイルとタグを持つことができますが、セキュリティのラベルを持っていてはいけません。」</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -449,7 +449,7 @@
   </si>
   <si>
     <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+ext-1:「拡張機能または値[x]のいずれかが必要です。両方ではありません。」 {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>MedicationAdministration.extension:requestDepartment</t>
@@ -536,7 +536,7 @@
     <t>無視できない拡張機能 (Mushi dekinai kakuchou kinou)</t>
   </si>
   <si>
-    <t>リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。</t>
+    <t>「リソースの基本的な定義に含まれない、要素の理解や、それを含む要素の子孫の理解を修正する追加情報を表すためにも使用されることがあります。通常、修飾要素は否定や修飾を提供します。拡張機能の使用を安全で管理しやすくするために、拡張機能の定義と使用に対して厳格な統治が適用されます。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張をチェックする必要があります。修飾子拡張は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味も変更できません）。」</t>
   </si>
   <si>
     <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
@@ -643,7 +643,7 @@
     <t>MedicationAdministration.identifier.use</t>
   </si>
   <si>
-    <t>通常|公式|一時的|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
+    <t>通常|公式|温度|セカンダリ|古い（知られている場合） / usual | official | temp | secondary | old (If known)</t>
   </si>
   <si>
     <t>この識別子の目的。 / The purpose of this identifier.</t>
@@ -1031,7 +1031,7 @@
 </t>
   </si>
   <si>
-    <t>「誰が薬を受け取りましたか？」</t>
+    <t>「誰が薬を受け取りましたか？」(dare ga kusuri o uketorimashita ka?)</t>
   </si>
   <si>
     <t>薬を受け取る人、動物、またはグループ。 (Kusuri wo uketoru hito, doubutsu, matawa guruupu.)</t>
@@ -1059,7 +1059,7 @@
     <t>「エピソード・オブ・ケア」は、「エンカウンター」として提供されます。</t>
   </si>
   <si>
-    <t>薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。</t>
+    <t>「薬剤投与が行われた患者と医療提供者の間での訪問、入院、またはその他の接触。」</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -1081,7 +1081,7 @@
 </t>
   </si>
   <si>
-    <t>管理をサポートするための追加情報</t>
+    <t>「管理をサポートするための追加情報」</t>
   </si>
   <si>
     <t>薬の投与を補助する追加情報（例えば、患者の身長や体重）。</t>
@@ -1097,10 +1097,10 @@
 Period</t>
   </si>
   <si>
-    <t>「管理の開始時刻と終了時刻」</t>
-  </si>
-  <si>
-    <t>与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。</t>
+    <t>「管理の開始時刻と終了時刻」(Kanri no kaishi jikoku to shūryō jikoku)</t>
+  </si>
+  <si>
+    <t>「与えられた属性が「真実」となっている場合に、行政が行われた（または行われなかった）特定の日時または時間の間隔。錠剤の服用など、多くの行政では、dateTimeの使用が適切です。」</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1122,10 +1122,10 @@
 </t>
   </si>
   <si>
-    <t>薬剤投与を行ったのは誰で、何をしたのか？</t>
-  </si>
-  <si>
-    <t>薬の投与を行った人や物、および彼らがどのように関与したかを示す。</t>
+    <t>「薬剤投与を行ったのは誰で、何をしたのか？」</t>
+  </si>
+  <si>
+    <t>「薬の投与を行った人や物、および彼らがどのように関与したかを示す。」</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1155,7 +1155,7 @@
     <t>実装によって定義される追加コンテンツ</t>
   </si>
   <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+    <t>「要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。」</t>
   </si>
   <si>
     <t>MedicationAdministration.performer.modifierExtension</t>
@@ -1165,11 +1165,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>認識されなくても無視できない拡張機能</t>
-  </si>
-  <si>
-    <t>基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
-修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。</t>
+    <t>「認識されなくても無視できない拡張機能」(Ninshiki sarenakutemo mushi dekinai kakuchou kinou)</t>
+  </si>
+  <si>
+    <t>「基本的な要素の定義に含まれない追加情報を表すために使用されることがあり、それによって、その要素自体または取り込んでいる要素の子孫の理解を修正する。修飾子要素は通常、否定または修飾を提供します。拡張機能の安全で管理しやすい使用を実現するために、定義および使用に厳しいガバナンスセットが適用されています。どの実装者でも拡張機能を定義できますが、拡張機能の定義の一部として満たす必要がある要件があります。リソースを処理するアプリケーションは、修飾子拡張子をチェックする必要があります。
+修飾子拡張機能は、リソースまたはドメインリソースの任意の要素の意味を変更してはなりません（修飾子拡張自体の意味を変更することもできません）。」</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1178,13 +1178,13 @@
     <t>MedicationAdministration.performer.function</t>
   </si>
   <si>
-    <t>「パフォーマンスの種類」</t>
+    <t>「パフォーマンスの種類」(Pafōmansu no shurui)</t>
   </si>
   <si>
     <t>演者の医薬品投与における関与タイプを区別します。 (Ensha no iyakuhin tōyo ni okeru kan'yo taipu o kubetsushimasu.)</t>
   </si>
   <si>
-    <t>薬物管理を行った個人の役割を説明するコード</t>
+    <t>「薬物管理を行った個人の役割を説明するコード」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/med-admin-perform-function</t>
@@ -1203,10 +1203,10 @@
 </t>
   </si>
   <si>
-    <t>「薬剤投与を行ったのは誰ですか？」</t>
-  </si>
-  <si>
-    <t>薬剤投与を行った人物または物品を示す</t>
+    <t>「薬剤投与を行ったのは誰ですか？」(Yakuzaiteiyogyou o okonatta no wa dare desu ka?)</t>
+  </si>
+  <si>
+    <t>「薬剤投与を行った人物または物品を示す」</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -1224,7 +1224,7 @@
     <t>与えられた薬を説明するコード。</t>
   </si>
   <si>
-    <t>薬剤投与が行われた理由を示すコードのセット。</t>
+    <t>「薬剤投与が行われた理由を示すコードのセット。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/reason-medication-given-codes</t>
@@ -1246,13 +1246,13 @@
 </t>
   </si>
   <si>
-    <t>薬が投与された理由を支持する状態または観察</t>
+    <t>「薬が投与された理由を支持する状態または観察」</t>
   </si>
   <si>
     <t>薬剤が投与された理由を支持する状態または観察。</t>
   </si>
   <si>
-    <t>これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。</t>
+    <t>「これは、薬剤依頼の理由となる状態に関する参照です。もしコードしか存在しない場合は、reasonCodeを使用してください。」</t>
   </si>
   <si>
     <t>Event.reasonReference</t>
@@ -1277,10 +1277,10 @@
     <t>"リクエスト管理対象として実行してください。" (Rikuesuto kanri taishou toshite jikkou shite kudasai.)</t>
   </si>
   <si>
-    <t>管理を実行するための元の要求、指示、または権限。</t>
-  </si>
-  <si>
-    <t>これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。</t>
+    <t>「管理を実行するための元の要求、指示、または権限。」</t>
+  </si>
+  <si>
+    <t>「これは、意図がオーダーまたはインスタンスオーダーであるMedicationRequestへの参照であり、意図が他の値であるMedicationRequestへの参照ではありません。」</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -1299,7 +1299,7 @@
 </t>
   </si>
   <si>
-    <t>投与するための装置</t>
+    <t>「投与するための装置」(touyo suru tame no souchi)</t>
   </si>
   <si>
     <t>患者に薬剤を投与するのに使われる装置。例えば、特定の注入ポンプ。</t>
@@ -1318,10 +1318,10 @@
 </t>
   </si>
   <si>
-    <t>「行政に関する情報」</t>
-  </si>
-  <si>
-    <t>他の属性では伝えられない薬剤投与に関する追加情報</t>
+    <t>「行政に関する情報」(Gyōsei ni kansuru jōhō)</t>
+  </si>
+  <si>
+    <t>「他の属性では伝えられない薬剤投与に関する追加情報」</t>
   </si>
   <si>
     <t>Event.note</t>
@@ -1371,16 +1371,16 @@
     <t>MedicationAdministration.dosage.site</t>
   </si>
   <si>
-    <t>投与された体の部位</t>
+    <t>「投与された体の部位」(Touyo sareta karada no bubui)</t>
   </si>
   <si>
     <t>薬剤が最初に体内に入った解剖学的な部位の符号化された規格。例えば、「左腕」。</t>
   </si>
   <si>
-    <t>もし使用用途がBodySiteリソースから属性を必要とする場合（例えば、個別に識別および追跡するため）は、標準の拡張子[bodySite]（extension-bodysite.html）を使用してください。要約コードであるか、非常に正確な位置の定義への参照であるか、双方である可能性があります。</t>
-  </si>
-  <si>
-    <t>薬剤が体内に入るか、体表面に塗布される場所を示すコード化された概念。</t>
+    <t>「もし使用用途がBodySiteリソースから属性を必要とする場合（例えば、個別に識別および追跡するため）は、標準の拡張子[bodySite]（extension-bodysite.html）を使用してください。要約コードであるか、非常に正確な位置の定義への参照であるか、双方である可能性があります。」</t>
+  </si>
+  <si>
+    <t>「薬剤が体内に入るか、体表面に塗布される場所を示すコード化された概念。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/approach-site-codes</t>
@@ -1401,7 +1401,7 @@
     <t>治療剤の患者への内部または表面への投与のルートまたは生理学的経路を指定するコード。例えば、表面的な投与、静注など。</t>
   </si>
   <si>
-    <t>治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念</t>
+    <t>「治療薬剤を被験者の体内あるいは体表面へ投与する生理学的ルートや経路を記述する符号化された概念」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/route-codes</t>
@@ -1416,7 +1416,7 @@
     <t>MedicationAdministration.dosage.method</t>
   </si>
   <si>
-    <t>薬剤がどのように投与されたか</t>
+    <t>「薬剤がどのように投与されたか」</t>
   </si>
   <si>
     <t>薬剤が体内または体表に導入される方法を示すコード化された値。 この属性は通常、非Populatedでありません。 通常、注射に使用されます。 たとえば、スロープッシュ、深いIV。</t>
@@ -1425,7 +1425,7 @@
     <t>この属性があまり使用されていない理由の一つに、方法がしばしば経路や投与形態と事前調整されていることが挙げられる。これは、経路コードまたは投与形態コードで方法が事前に調整される場合があることを意味する。また、経路コードや投与形態コードに使用されるコーディングシステムを決定する実装に関する決定は、どの程度の頻度でメソッドコードが追加されるかを決定する。たとえば、経路コードや投与形態コードが方法コードを事前調整する場合、この属性はあまり追加されないかもしれない。事前調整が行われていない場合、方法コードが頻繁に使用される可能性がある。</t>
   </si>
   <si>
-    <t>薬剤が投与される方法を記述する暗号化された概念。</t>
+    <t>「薬剤が投与される方法を記述する暗号化された概念。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
@@ -1450,7 +1450,7 @@
     <t>一回の投与イベントで与えられる薬剤の量。この値は、錠剤を飲んだり注射をしたりするような、本質的に瞬時のイベントである場合に使用します。</t>
   </si>
   <si>
-    <t>もし投与速度が即時でない場合、単回の投与期間中に投与される総量を示すことができます。</t>
+    <t>「もし投与速度が即時でない場合、単回の投与期間中に投与される総量を示すことができます。」</t>
   </si>
   <si>
     <t>.doseQuantity</t>
@@ -1466,7 +1466,7 @@
 Quantity {SimpleQuantity}</t>
   </si>
   <si>
-    <t>時間当たりの投与量</t>
+    <t>「時間当たりの投与量」</t>
   </si>
   <si>
     <t>患者に投与されたあるいは投与される薬剤の導入速度を特定します。通常、投与速度は、100 ml / 1時間、または100 ml /時間（時間あたり100 ml）のような輸液の速度として表されます。時間単位あたりの速度として表される場合もあります。例えば、500 ml / 2時間のように。その他の例：200 mcg /分あるいは1分間当たり200 mcg；1リットル/8時間。</t>
@@ -1488,10 +1488,10 @@
 </t>
   </si>
   <si>
-    <t>ライフサイクルで興味深いイベントのリスト</t>
-  </si>
-  <si>
-    <t>行政が検証された時などに起こった興味深い出来事の要約</t>
+    <t>「ライフサイクルで興味深いイベントのリスト」</t>
+  </si>
+  <si>
+    <t>「行政が検証された時などに起こった興味深い出来事の要約」</t>
   </si>
   <si>
     <t>この要請のすべてのバージョンの起源が含まれているわけではない可能性があります。ただし、「関連性」または重要と見なされるものに限定されます。それに含まれる証跡には、このリソースの現在のバージョンに関連するものは含まれません。 （そのプロバイナンスが「関連性のある」変更である場合、後の更新の一部として追加する必要があります。その時までは、このバージョンを指すプロバイナンスとして直接クエリできます。All Provenancesは、この要求の過去のバージョンを主題として持つ必要があります。</t>
